--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1072,109 +1072,109 @@
           <t>2025-08-20</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>9928663.017550005</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="U8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="W8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Z8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="Z8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1183,6 +1183,111 @@
         <is>
           <t>2025-08-21</t>
         </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9880580.017549997</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1184,109 +1184,109 @@
           <t>2025-08-21</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>9880580.017549997</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="U9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="W9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="Z9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,6 +1295,111 @@
         <is>
           <t>2025-08-22</t>
         </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9940433.773549996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1296,109 +1296,109 @@
           <t>2025-08-22</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>9940433.773549996</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="U10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="W10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="Z10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,6 +1407,111 @@
         <is>
           <t>2025-08-25</t>
         </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9975825.773549996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>36</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1408,109 +1408,109 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>9975825.773549996</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="U11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="W11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="Z11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,6 +1519,111 @@
         <is>
           <t>2025-08-26</t>
         </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10194813.77355</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>36</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1520,109 +1520,109 @@
           <t>2025-08-26</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>10194813.77355</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="R12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="U12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="W12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="Z12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1631,6 +1631,111 @@
         <is>
           <t>2025-08-27</t>
         </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10192355.12855</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1632,109 +1632,109 @@
           <t>2025-08-27</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>10192355.12855</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="U13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="W13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1743,6 +1743,111 @@
         <is>
           <t>2025-08-28</t>
         </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10100168.62855</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1744,109 +1744,109 @@
           <t>2025-08-28</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="0" t="n">
         <v>10100168.62855</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="U14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="W14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="Z14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1855,6 +1855,111 @@
         <is>
           <t>2025-08-29</t>
         </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10100685.62855</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1856,109 +1856,109 @@
           <t>2025-08-29</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>10100685.62855</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="R15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="U15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="W15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="Z15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1967,6 +1967,111 @@
         <is>
           <t>2025-09-01</t>
         </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10134708.12855</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -1968,109 +1968,109 @@
           <t>2025-09-01</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="0" t="n">
         <v>10134708.12855</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="R16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="U16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W16" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="W16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="Z16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2079,6 +2079,111 @@
         <is>
           <t>2025-09-02</t>
         </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10262262.57855</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>37</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2080,109 +2080,109 @@
           <t>2025-09-02</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="0" t="n">
         <v>10262262.57855</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="U17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="W17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="Z17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2191,6 +2191,111 @@
         <is>
           <t>2025-09-03</t>
         </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10217582.57855</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>37</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2192,109 +2192,109 @@
           <t>2025-09-03</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="0" t="n">
         <v>10217582.57855</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="U18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="W18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="Z18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2303,6 +2303,111 @@
         <is>
           <t>2025-09-04</t>
         </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10283719.57855</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>36</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>13</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2304,109 +2304,109 @@
           <t>2025-09-04</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="0" t="n">
         <v>10283719.57855</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="O19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="U19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W19" t="n">
-        <v>2</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="W19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
+      <c r="Z19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2415,6 +2415,111 @@
         <is>
           <t>2025-09-05</t>
         </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10206815.07855</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2416,109 +2416,109 @@
           <t>2025-09-05</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="0" t="n">
         <v>10206815.07855</v>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="J20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="U20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="W20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2527,6 +2527,111 @@
         <is>
           <t>2025-09-08</t>
         </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10265776.57855</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2528,109 +2528,109 @@
           <t>2025-09-08</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="0" t="n">
         <v>10265776.57855</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J21" t="n">
-        <v>5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="J21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="U21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W21" t="n">
-        <v>2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="W21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2639,6 +2639,111 @@
         <is>
           <t>2025-09-09</t>
         </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10283653.57855</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2640,109 +2640,109 @@
           <t>2025-09-09</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="0" t="n">
         <v>10283653.57855</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J22" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="J22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="O22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="R22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="U22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="W22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,6 +2751,111 @@
         <is>
           <t>2025-09-10</t>
         </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10242921.57855</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>39</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2752,109 +2752,109 @@
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="0" t="n">
         <v>10242921.57855</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J23" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="J23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="U23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W23" t="n">
-        <v>2</v>
-      </c>
-      <c r="X23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="W23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2863,6 +2863,111 @@
         <is>
           <t>2025-09-11</t>
         </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10114862.57855</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>41</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2864,109 +2864,109 @@
           <t>2025-09-11</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="0" t="n">
         <v>10114862.57855</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="J24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="U24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="W24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2975,6 +2975,111 @@
         <is>
           <t>2025-09-12</t>
         </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10288912.57855</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>41</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>7</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -2976,109 +2976,109 @@
           <t>2025-09-12</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="0" t="n">
         <v>10288912.57855</v>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="O25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="R25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="U25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W25" t="n">
-        <v>2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="W25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3087,6 +3087,111 @@
         <is>
           <t>2025-09-15</t>
         </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10339664.07855</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>44</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>7</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3088,109 +3088,109 @@
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="0" t="n">
         <v>10339664.07855</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="H26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="O26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="U26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W26" t="n">
-        <v>2</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
+      <c r="W26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3199,6 +3199,111 @@
         <is>
           <t>2025-09-16</t>
         </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10400420.57855</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3200,109 +3200,109 @@
           <t>2025-09-16</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="0" t="n">
         <v>10400420.57855</v>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J27" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="O27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R27" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="U27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W27" t="n">
-        <v>2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
+      <c r="W27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3311,6 +3311,111 @@
         <is>
           <t>2025-09-17</t>
         </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10591550.95155</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3312,109 +3312,109 @@
           <t>2025-09-17</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="0" t="n">
         <v>10591550.95155</v>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J28" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="O28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" t="n">
+      <c r="R28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="U28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
+      <c r="W28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3423,6 +3423,111 @@
         <is>
           <t>2025-09-18</t>
         </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10673491.45155</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>47</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3424,109 +3424,109 @@
           <t>2025-09-18</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="0" t="n">
         <v>10673491.45155</v>
       </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J29" t="n">
-        <v>5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="O29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
+      <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="U29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W29" t="n">
-        <v>2</v>
-      </c>
-      <c r="X29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
+      <c r="W29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3535,6 +3535,111 @@
         <is>
           <t>2025-09-19</t>
         </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10475024.64815</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>7</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>6</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3536,109 +3536,109 @@
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="0" t="n">
         <v>10475024.64815</v>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="O30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="R30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="U30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W30" t="n">
-        <v>2</v>
-      </c>
-      <c r="X30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="W30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3647,6 +3647,111 @@
         <is>
           <t>2025-09-22</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10386227.49915</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>46</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3648,109 +3648,109 @@
           <t>2025-09-22</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="0" t="n">
         <v>10386227.49915</v>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="O31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
+      <c r="U31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W31" t="n">
-        <v>2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
+      <c r="W31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3759,6 +3759,111 @@
         <is>
           <t>2025-09-23</t>
         </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10537979.08914999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>46</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3760,109 +3760,109 @@
           <t>2025-09-23</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="0" t="n">
         <v>10537979.08914999</v>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="O32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
+      <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="U32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="W32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3871,6 +3871,111 @@
         <is>
           <t>2025-09-24</t>
         </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10352868.21515</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>47</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3872,109 +3872,109 @@
           <t>2025-09-24</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="0" t="n">
         <v>10352868.21515</v>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="H33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J33" t="n">
-        <v>5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="O33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="R33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>6</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2</v>
-      </c>
-      <c r="X33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
+      <c r="U33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3983,6 +3983,111 @@
         <is>
           <t>2025-09-25</t>
         </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10473991.71515</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>7</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>6</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -3984,109 +3984,109 @@
           <t>2025-09-25</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="0" t="n">
         <v>10473991.71515</v>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J34" t="n">
-        <v>5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="O34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="R34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T34" t="n">
-        <v>6</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>6</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="T34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4095,6 +4095,111 @@
         <is>
           <t>2025-09-26</t>
         </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10497346.71515</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>45</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>7</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4096,109 +4096,109 @@
           <t>2025-09-26</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="0" t="n">
         <v>10497346.71515</v>
       </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="H35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J35" t="n">
-        <v>5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="O35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="n">
+      <c r="R35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>6</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2</v>
-      </c>
-      <c r="X35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="T35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,6 +4207,111 @@
         <is>
           <t>2025-09-29</t>
         </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10464138.71515</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>46</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>6</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4208,109 +4208,109 @@
           <t>2025-09-29</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="0" t="n">
         <v>10464138.71515</v>
       </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J36" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="O36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
-      <c r="S36" t="n">
+      <c r="R36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T36" t="n">
-        <v>6</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2</v>
-      </c>
-      <c r="V36" t="n">
-        <v>6</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
+      <c r="T36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4319,6 +4319,111 @@
         <is>
           <t>2025-09-30</t>
         </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10577437.21514999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>7</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4320,109 +4320,109 @@
           <t>2025-09-30</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>10577437.21514999</v>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J37" t="n">
-        <v>5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="O37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" t="n">
+      <c r="R37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
-      <c r="V37" t="n">
-        <v>6</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2</v>
-      </c>
-      <c r="X37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="U37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,6 +4438,111 @@
         <is>
           <t>2025-10-10</t>
         </is>
+      </c>
+      <c r="B39" t="n">
+        <v>11034074.12515</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>47</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>8</v>
+      </c>
+      <c r="T39" t="n">
+        <v>7</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4439,109 +4439,109 @@
           <t>2025-10-10</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="0" t="n">
         <v>11034074.12515</v>
       </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O39" t="n">
-        <v>2</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="O39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="n">
+      <c r="R39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
-      <c r="V39" t="n">
+      <c r="U39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="W39" t="n">
-        <v>2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
+      <c r="W39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4550,6 +4550,111 @@
         <is>
           <t>2025-10-13</t>
         </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10841837.12515</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>47</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4551,109 +4551,109 @@
           <t>2025-10-13</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="0" t="n">
         <v>10841837.12515</v>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="O40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
+      <c r="R40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
-      <c r="V40" t="n">
-        <v>6</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2</v>
-      </c>
-      <c r="X40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
+      <c r="U40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4662,6 +4662,111 @@
         <is>
           <t>2025-10-14</t>
         </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10922107.12515</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>46</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>9</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>6</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4663,109 +4663,109 @@
           <t>2025-10-14</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="0" t="n">
         <v>10922107.12515</v>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O41" t="n">
-        <v>2</v>
-      </c>
-      <c r="P41" t="n">
+      <c r="O41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="R41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T41" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="U41" t="n">
-        <v>2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>6</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2</v>
-      </c>
-      <c r="X41" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
+      <c r="U41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4774,6 +4774,111 @@
         <is>
           <t>2025-10-15</t>
         </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10867610.12515</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>49</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>9</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="n">
+        <v>8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4775,109 +4775,109 @@
           <t>2025-10-15</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="0" t="n">
         <v>10867610.12515</v>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J42" t="n">
-        <v>6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O42" t="n">
-        <v>2</v>
-      </c>
-      <c r="P42" t="n">
+      <c r="O42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="R42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="U42" t="n">
-        <v>2</v>
-      </c>
-      <c r="V42" t="n">
+      <c r="U42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="W42" t="n">
-        <v>2</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="W42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Y42" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
+      <c r="Y42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4886,6 +4886,111 @@
         <is>
           <t>2025-10-16</t>
         </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10994867.9404</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>58</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>10</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>12</v>
+      </c>
+      <c r="T43" t="n">
+        <v>9</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>9</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4887,109 +4887,109 @@
           <t>2025-10-16</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="0" t="n">
         <v>10994867.9404</v>
       </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="K43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" t="n">
+      <c r="R43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T43" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
+      <c r="U43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="W43" t="n">
+      <c r="W43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="X43" t="n">
+      <c r="X43" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y43" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Z43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
+      <c r="Z43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4998,6 +4998,111 @@
         <is>
           <t>2025-10-17</t>
         </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11014020.2034</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>52</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>11</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>12</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>9</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -4999,109 +4999,109 @@
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="0" t="n">
         <v>11014020.2034</v>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
+      <c r="R44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="U44" t="n">
-        <v>2</v>
-      </c>
-      <c r="V44" t="n">
+      <c r="U44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="W44" t="n">
+      <c r="W44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="X44" t="n">
+      <c r="X44" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Y44" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Z44" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
+      <c r="Z44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5110,6 +5110,111 @@
         <is>
           <t>2025-10-20</t>
         </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11008878.4109</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>53</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>22</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>12</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>13</v>
+      </c>
+      <c r="T45" t="n">
+        <v>11</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>10</v>
+      </c>
+      <c r="W45" t="n">
+        <v>3</v>
+      </c>
+      <c r="X45" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5111,109 +5111,109 @@
           <t>2025-10-20</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="0" t="n">
         <v>11008878.4109</v>
       </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="G45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="K45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O45" t="n">
-        <v>3</v>
-      </c>
-      <c r="P45" t="n">
+      <c r="O45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
+      <c r="R45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T45" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
-      <c r="V45" t="n">
+      <c r="U45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="W45" t="n">
-        <v>3</v>
-      </c>
-      <c r="X45" t="n">
+      <c r="W45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X45" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Y45" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="Z45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5222,6 +5222,111 @@
         <is>
           <t>2025-10-21</t>
         </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10835939.8189</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>55</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>12</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14</v>
+      </c>
+      <c r="T46" t="n">
+        <v>11</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>11</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3</v>
+      </c>
+      <c r="X46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5223,109 +5223,109 @@
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="0" t="n">
         <v>10835939.8189</v>
       </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G46" t="n">
-        <v>3</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="G46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="K46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O46" t="n">
-        <v>3</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="O46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
-      <c r="S46" t="n">
+      <c r="R46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T46" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
-      <c r="V46" t="n">
+      <c r="U46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W46" t="n">
-        <v>3</v>
-      </c>
-      <c r="X46" t="n">
+      <c r="W46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X46" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Y46" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
+      <c r="Z46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5334,6 +5334,111 @@
         <is>
           <t>2025-10-22</t>
         </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11021125.3189</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>52</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>12</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>14</v>
+      </c>
+      <c r="T47" t="n">
+        <v>11</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>11</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3</v>
+      </c>
+      <c r="X47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5335,109 +5335,109 @@
           <t>2025-10-22</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="0" t="n">
         <v>11021125.3189</v>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="G47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="K47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O47" t="n">
-        <v>3</v>
-      </c>
-      <c r="P47" t="n">
+      <c r="O47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
+      <c r="R47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T47" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U47" t="n">
-        <v>3</v>
-      </c>
-      <c r="V47" t="n">
+      <c r="U47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W47" t="n">
-        <v>3</v>
-      </c>
-      <c r="X47" t="n">
+      <c r="W47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Y47" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
+      <c r="Z47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5446,6 +5446,111 @@
         <is>
           <t>2025-10-23</t>
         </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10902542.5564</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>52</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>12</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>11</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>11</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5447,109 +5447,109 @@
           <t>2025-10-23</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="0" t="n">
         <v>10902542.5564</v>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G48" t="n">
-        <v>3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="G48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="K48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O48" t="n">
-        <v>3</v>
-      </c>
-      <c r="P48" t="n">
+      <c r="O48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
+      <c r="R48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T48" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
-      <c r="V48" t="n">
+      <c r="U48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W48" t="n">
-        <v>3</v>
-      </c>
-      <c r="X48" t="n">
+      <c r="W48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X48" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y48" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
+      <c r="Z48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5558,6 +5558,111 @@
         <is>
           <t>2025-10-24</t>
         </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10898407.5564</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>52</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>12</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>14</v>
+      </c>
+      <c r="T49" t="n">
+        <v>11</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>11</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5559,109 +5559,109 @@
           <t>2025-10-24</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="0" t="n">
         <v>10898407.5564</v>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G49" t="n">
-        <v>3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="G49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="K49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O49" t="n">
-        <v>3</v>
-      </c>
-      <c r="P49" t="n">
+      <c r="O49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
-      <c r="S49" t="n">
+      <c r="R49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T49" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
-      <c r="V49" t="n">
+      <c r="U49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W49" t="n">
-        <v>3</v>
-      </c>
-      <c r="X49" t="n">
+      <c r="W49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X49" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y49" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
+      <c r="Z49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5670,6 +5670,111 @@
         <is>
           <t>2025-10-27</t>
         </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10946930.73239999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>53</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>12</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14</v>
+      </c>
+      <c r="T50" t="n">
+        <v>11</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>11</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3</v>
+      </c>
+      <c r="X50" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5671,109 +5671,109 @@
           <t>2025-10-27</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="0" t="n">
         <v>10946930.73239999</v>
       </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="G50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="K50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="O50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R50" t="n">
-        <v>2</v>
-      </c>
-      <c r="S50" t="n">
+      <c r="R50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T50" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U50" t="n">
-        <v>3</v>
-      </c>
-      <c r="V50" t="n">
+      <c r="U50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W50" t="n">
-        <v>3</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="W50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X50" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Y50" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
+      <c r="Z50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5782,6 +5782,111 @@
         <is>
           <t>2025-10-28</t>
         </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11129609.5319</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>53</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>12</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>11</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>11</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5783,109 +5783,109 @@
           <t>2025-10-28</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="0" t="n">
         <v>11129609.5319</v>
       </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="G51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="K51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P51" t="n">
+      <c r="O51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R51" t="n">
-        <v>2</v>
-      </c>
-      <c r="S51" t="n">
+      <c r="R51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
-      <c r="V51" t="n">
+      <c r="U51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W51" t="n">
-        <v>3</v>
-      </c>
-      <c r="X51" t="n">
+      <c r="W51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Y51" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
+      <c r="Z51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,6 +5894,111 @@
         <is>
           <t>2025-10-29</t>
         </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11099036.7869</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>53</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>12</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
+      <c r="T52" t="n">
+        <v>11</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>11</v>
+      </c>
+      <c r="W52" t="n">
+        <v>3</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5895,109 +5895,109 @@
           <t>2025-10-29</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="0" t="n">
         <v>11099036.7869</v>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G52" t="n">
-        <v>3</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="G52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="K52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O52" t="n">
-        <v>3</v>
-      </c>
-      <c r="P52" t="n">
+      <c r="O52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R52" t="n">
-        <v>2</v>
-      </c>
-      <c r="S52" t="n">
+      <c r="R52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T52" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
-      <c r="V52" t="n">
+      <c r="U52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W52" t="n">
-        <v>3</v>
-      </c>
-      <c r="X52" t="n">
+      <c r="W52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X52" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Y52" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
+      <c r="Z52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6006,6 +6006,111 @@
         <is>
           <t>2025-10-30</t>
         </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11338113.94189999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>52</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>12</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>14</v>
+      </c>
+      <c r="T53" t="n">
+        <v>11</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>11</v>
+      </c>
+      <c r="W53" t="n">
+        <v>3</v>
+      </c>
+      <c r="X53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6007,109 +6007,109 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="0" t="n">
         <v>11338113.94189999</v>
       </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G53" t="n">
-        <v>3</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="G53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3</v>
-      </c>
-      <c r="M53" t="n">
+      <c r="K53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N53" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" t="n">
-        <v>3</v>
-      </c>
-      <c r="P53" t="n">
+      <c r="N53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
-      <c r="S53" t="n">
+      <c r="R53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T53" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U53" t="n">
-        <v>3</v>
-      </c>
-      <c r="V53" t="n">
+      <c r="U53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W53" t="n">
-        <v>3</v>
-      </c>
-      <c r="X53" t="n">
+      <c r="W53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X53" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y53" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
+      <c r="Z53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6118,6 +6118,111 @@
         <is>
           <t>2025-10-31</t>
         </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11273454.42939999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>53</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>12</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14</v>
+      </c>
+      <c r="T54" t="n">
+        <v>12</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>11</v>
+      </c>
+      <c r="W54" t="n">
+        <v>3</v>
+      </c>
+      <c r="X54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6119,109 +6119,109 @@
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="0" t="n">
         <v>11273454.42939999</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="H54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K54" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3</v>
-      </c>
-      <c r="M54" t="n">
+      <c r="K54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N54" t="n">
-        <v>5</v>
-      </c>
-      <c r="O54" t="n">
-        <v>3</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
+      <c r="N54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
+      <c r="R54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U54" t="n">
-        <v>3</v>
-      </c>
-      <c r="V54" t="n">
+      <c r="U54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W54" t="n">
-        <v>3</v>
-      </c>
-      <c r="X54" t="n">
+      <c r="W54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X54" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Y54" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z54" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
+      <c r="Z54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6230,6 +6230,111 @@
         <is>
           <t>2025-11-03</t>
         </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11287742.2634</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>54</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>11</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
+      <c r="T55" t="n">
+        <v>11</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>11</v>
+      </c>
+      <c r="W55" t="n">
+        <v>3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6231,109 +6231,109 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="0" t="n">
         <v>11287742.2634</v>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="H55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3</v>
-      </c>
-      <c r="M55" t="n">
+      <c r="K55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O55" t="n">
-        <v>3</v>
-      </c>
-      <c r="P55" t="n">
+      <c r="O55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
-      <c r="S55" t="n">
+      <c r="R55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T55" t="n">
+      <c r="T55" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
-      <c r="V55" t="n">
+      <c r="U55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W55" t="n">
-        <v>3</v>
-      </c>
-      <c r="X55" t="n">
+      <c r="W55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X55" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Y55" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z55" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
+      <c r="Z55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6342,6 +6342,111 @@
         <is>
           <t>2025-11-04</t>
         </is>
+      </c>
+      <c r="B56" t="n">
+        <v>11307206.57940001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>55</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>22</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>11</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>14</v>
+      </c>
+      <c r="T56" t="n">
+        <v>12</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>11</v>
+      </c>
+      <c r="W56" t="n">
+        <v>3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6343,109 +6343,109 @@
           <t>2025-11-04</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="0" t="n">
         <v>11307206.57940001</v>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G56" t="n">
-        <v>4</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="G56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5</v>
-      </c>
-      <c r="O56" t="n">
-        <v>3</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
+      <c r="K56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R56" t="n">
-        <v>2</v>
-      </c>
-      <c r="S56" t="n">
+      <c r="R56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T56" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U56" t="n">
-        <v>3</v>
-      </c>
-      <c r="V56" t="n">
+      <c r="U56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W56" t="n">
-        <v>3</v>
-      </c>
-      <c r="X56" t="n">
+      <c r="W56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X56" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Y56" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
+      <c r="Z56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6454,6 +6454,111 @@
         <is>
           <t>2025-11-05</t>
         </is>
+      </c>
+      <c r="B57" t="n">
+        <v>11134776.1494</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>11</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>13</v>
+      </c>
+      <c r="T57" t="n">
+        <v>11</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>11</v>
+      </c>
+      <c r="W57" t="n">
+        <v>3</v>
+      </c>
+      <c r="X57" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6455,109 +6455,109 @@
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="0" t="n">
         <v>11134776.1494</v>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G57" t="n">
-        <v>4</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="G57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4</v>
-      </c>
-      <c r="O57" t="n">
-        <v>3</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
+      <c r="K57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
+      <c r="R57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T57" t="n">
+      <c r="T57" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U57" t="n">
-        <v>3</v>
-      </c>
-      <c r="V57" t="n">
+      <c r="U57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W57" t="n">
-        <v>3</v>
-      </c>
-      <c r="X57" t="n">
+      <c r="W57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X57" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Y57" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
+      <c r="Z57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6566,6 +6566,111 @@
         <is>
           <t>2025-11-06</t>
         </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11112131.76190001</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>53</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>22</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>11</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13</v>
+      </c>
+      <c r="T58" t="n">
+        <v>11</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>11</v>
+      </c>
+      <c r="W58" t="n">
+        <v>3</v>
+      </c>
+      <c r="X58" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6567,109 +6567,109 @@
           <t>2025-11-06</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="0" t="n">
         <v>11112131.76190001</v>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="C58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="G58" t="n">
-        <v>4</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="G58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K58" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
+      <c r="K58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
-      <c r="S58" t="n">
+      <c r="R58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T58" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U58" t="n">
-        <v>3</v>
-      </c>
-      <c r="V58" t="n">
+      <c r="U58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W58" t="n">
-        <v>3</v>
-      </c>
-      <c r="X58" t="n">
+      <c r="W58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X58" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Y58" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z58" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
+      <c r="Z58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6678,6 +6678,111 @@
         <is>
           <t>2025-11-07</t>
         </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11187923.7619</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>54</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>11</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13</v>
+      </c>
+      <c r="T59" t="n">
+        <v>11</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>11</v>
+      </c>
+      <c r="W59" t="n">
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6679,109 +6679,109 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="0" t="n">
         <v>11187923.7619</v>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="C59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="G59" t="n">
-        <v>4</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="G59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4</v>
-      </c>
-      <c r="N59" t="n">
-        <v>4</v>
-      </c>
-      <c r="O59" t="n">
-        <v>3</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
+      <c r="K59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R59" t="n">
-        <v>2</v>
-      </c>
-      <c r="S59" t="n">
+      <c r="R59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U59" t="n">
-        <v>3</v>
-      </c>
-      <c r="V59" t="n">
+      <c r="U59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W59" t="n">
-        <v>3</v>
-      </c>
-      <c r="X59" t="n">
+      <c r="W59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X59" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Y59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z59" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
+      <c r="Z59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6797,6 +6797,111 @@
         <is>
           <t>2025-11-11</t>
         </is>
+      </c>
+      <c r="B61" t="n">
+        <v>11242074.5569</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>55</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>11</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13</v>
+      </c>
+      <c r="T61" t="n">
+        <v>11</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>11</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6798,109 +6798,109 @@
           <t>2025-11-11</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="0" t="n">
         <v>11242074.5569</v>
       </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="C61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G61" t="n">
-        <v>4</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="G61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4</v>
-      </c>
-      <c r="N61" t="n">
-        <v>4</v>
-      </c>
-      <c r="O61" t="n">
-        <v>3</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q61" t="n">
+      <c r="K61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
-      <c r="S61" t="n">
+      <c r="R61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T61" t="n">
+      <c r="T61" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U61" t="n">
-        <v>3</v>
-      </c>
-      <c r="V61" t="n">
+      <c r="U61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W61" t="n">
-        <v>3</v>
-      </c>
-      <c r="X61" t="n">
+      <c r="W61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Y61" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
+      <c r="Z61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6909,6 +6909,111 @@
         <is>
           <t>2025-11-12</t>
         </is>
+      </c>
+      <c r="B62" t="n">
+        <v>11240608.9419</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>56</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>22</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>11</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>13</v>
+      </c>
+      <c r="T62" t="n">
+        <v>11</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>11</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3</v>
+      </c>
+      <c r="X62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -6910,109 +6910,109 @@
           <t>2025-11-12</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="0" t="n">
         <v>11240608.9419</v>
       </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="C62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="G62" t="n">
-        <v>4</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="G62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K62" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4</v>
-      </c>
-      <c r="N62" t="n">
-        <v>4</v>
-      </c>
-      <c r="O62" t="n">
-        <v>3</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="n">
+      <c r="K62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
-      <c r="S62" t="n">
+      <c r="R62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T62" t="n">
+      <c r="T62" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U62" t="n">
-        <v>3</v>
-      </c>
-      <c r="V62" t="n">
+      <c r="U62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W62" t="n">
-        <v>3</v>
-      </c>
-      <c r="X62" t="n">
+      <c r="W62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X62" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Y62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
+      <c r="Z62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7021,6 +7021,111 @@
         <is>
           <t>2025-11-13</t>
         </is>
+      </c>
+      <c r="B63" t="n">
+        <v>11301255.9419</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>57</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>11</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13</v>
+      </c>
+      <c r="T63" t="n">
+        <v>11</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>11</v>
+      </c>
+      <c r="W63" t="n">
+        <v>3</v>
+      </c>
+      <c r="X63" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7022,109 +7022,109 @@
           <t>2025-11-13</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="0" t="n">
         <v>11301255.9419</v>
       </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="G63" t="n">
-        <v>4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="G63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3</v>
-      </c>
-      <c r="M63" t="n">
-        <v>4</v>
-      </c>
-      <c r="N63" t="n">
-        <v>4</v>
-      </c>
-      <c r="O63" t="n">
-        <v>3</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
+      <c r="K63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R63" t="n">
-        <v>2</v>
-      </c>
-      <c r="S63" t="n">
+      <c r="R63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T63" t="n">
+      <c r="T63" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U63" t="n">
-        <v>3</v>
-      </c>
-      <c r="V63" t="n">
+      <c r="U63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W63" t="n">
-        <v>3</v>
-      </c>
-      <c r="X63" t="n">
+      <c r="W63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X63" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Y63" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
+      <c r="Z63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7133,6 +7133,111 @@
         <is>
           <t>2025-11-14</t>
         </is>
+      </c>
+      <c r="B64" t="n">
+        <v>11359740.5319</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>57</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>11</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13</v>
+      </c>
+      <c r="T64" t="n">
+        <v>11</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>12</v>
+      </c>
+      <c r="W64" t="n">
+        <v>3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7134,109 +7134,109 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="0" t="n">
         <v>11359740.5319</v>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="C64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="G64" t="n">
-        <v>4</v>
-      </c>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="G64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K64" t="n">
-        <v>2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5</v>
-      </c>
-      <c r="O64" t="n">
-        <v>3</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
+      <c r="K64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R64" t="n">
-        <v>2</v>
-      </c>
-      <c r="S64" t="n">
+      <c r="R64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T64" t="n">
+      <c r="T64" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U64" t="n">
-        <v>3</v>
-      </c>
-      <c r="V64" t="n">
+      <c r="U64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W64" t="n">
-        <v>3</v>
-      </c>
-      <c r="X64" t="n">
+      <c r="W64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X64" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Y64" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
+      <c r="Z64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7245,6 +7245,111 @@
         <is>
           <t>2025-11-17</t>
         </is>
+      </c>
+      <c r="B65" t="n">
+        <v>11230872.45440001</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>60</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>11</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>13</v>
+      </c>
+      <c r="T65" t="n">
+        <v>11</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>11</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7246,109 +7246,109 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="0" t="n">
         <v>11230872.45440001</v>
       </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="C65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G65" t="n">
-        <v>4</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="G65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K65" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3</v>
-      </c>
-      <c r="M65" t="n">
-        <v>4</v>
-      </c>
-      <c r="N65" t="n">
-        <v>4</v>
-      </c>
-      <c r="O65" t="n">
-        <v>3</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
+      <c r="K65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
-      <c r="S65" t="n">
+      <c r="R65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T65" t="n">
+      <c r="T65" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U65" t="n">
-        <v>3</v>
-      </c>
-      <c r="V65" t="n">
+      <c r="U65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W65" t="n">
-        <v>3</v>
-      </c>
-      <c r="X65" t="n">
+      <c r="W65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X65" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Y65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
+      <c r="Z65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7357,6 +7357,111 @@
         <is>
           <t>2025-11-18</t>
         </is>
+      </c>
+      <c r="B66" t="n">
+        <v>11164587.3724</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>61</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>11</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>13</v>
+      </c>
+      <c r="T66" t="n">
+        <v>11</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>12</v>
+      </c>
+      <c r="W66" t="n">
+        <v>3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7358,109 +7358,109 @@
           <t>2025-11-18</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="0" t="n">
         <v>11164587.3724</v>
       </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="C66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="G66" t="n">
-        <v>4</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="G66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K66" t="n">
-        <v>2</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4</v>
-      </c>
-      <c r="N66" t="n">
-        <v>4</v>
-      </c>
-      <c r="O66" t="n">
-        <v>3</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="K66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R66" t="n">
-        <v>2</v>
-      </c>
-      <c r="S66" t="n">
+      <c r="R66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T66" t="n">
+      <c r="T66" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="U66" t="n">
-        <v>3</v>
-      </c>
-      <c r="V66" t="n">
+      <c r="U66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W66" t="n">
-        <v>3</v>
-      </c>
-      <c r="X66" t="n">
+      <c r="W66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X66" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Y66" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Z66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
+      <c r="Z66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7469,6 +7469,111 @@
         <is>
           <t>2025-11-19</t>
         </is>
+      </c>
+      <c r="B67" t="n">
+        <v>11061010.76990001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>62</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>23</v>
+      </c>
+      <c r="J67" t="n">
+        <v>9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>12</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>14</v>
+      </c>
+      <c r="T67" t="n">
+        <v>12</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>12</v>
+      </c>
+      <c r="W67" t="n">
+        <v>3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7470,109 +7470,109 @@
           <t>2025-11-19</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="0" t="n">
         <v>11061010.76990001</v>
       </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="C67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="G67" t="n">
-        <v>4</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="G67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K67" t="n">
-        <v>2</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3</v>
-      </c>
-      <c r="M67" t="n">
-        <v>4</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5</v>
-      </c>
-      <c r="O67" t="n">
-        <v>3</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="K67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R67" t="n">
-        <v>2</v>
-      </c>
-      <c r="S67" t="n">
+      <c r="R67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T67" t="n">
+      <c r="T67" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U67" t="n">
-        <v>3</v>
-      </c>
-      <c r="V67" t="n">
+      <c r="U67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W67" t="n">
-        <v>3</v>
-      </c>
-      <c r="X67" t="n">
+      <c r="W67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X67" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Y67" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
+      <c r="Z67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7581,6 +7581,111 @@
         <is>
           <t>2025-11-20</t>
         </is>
+      </c>
+      <c r="B68" t="n">
+        <v>11116226.32990001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>63</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>12</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>14</v>
+      </c>
+      <c r="T68" t="n">
+        <v>13</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>13</v>
+      </c>
+      <c r="W68" t="n">
+        <v>4</v>
+      </c>
+      <c r="X68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7582,109 +7582,109 @@
           <t>2025-11-20</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="0" t="n">
         <v>11116226.32990001</v>
       </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="C68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="G68" t="n">
-        <v>4</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="G68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K68" t="n">
-        <v>2</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5</v>
-      </c>
-      <c r="O68" t="n">
-        <v>3</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
+      <c r="K68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R68" t="n">
-        <v>2</v>
-      </c>
-      <c r="S68" t="n">
+      <c r="R68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T68" t="n">
+      <c r="T68" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U68" t="n">
-        <v>3</v>
-      </c>
-      <c r="V68" t="n">
+      <c r="U68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W68" t="n">
-        <v>4</v>
-      </c>
-      <c r="X68" t="n">
+      <c r="W68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X68" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Y68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
+      <c r="Z68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7693,6 +7693,111 @@
         <is>
           <t>2025-11-21</t>
         </is>
+      </c>
+      <c r="B69" t="n">
+        <v>11034265.97890001</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>62</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>24</v>
+      </c>
+      <c r="J69" t="n">
+        <v>9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>12</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>14</v>
+      </c>
+      <c r="T69" t="n">
+        <v>13</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>13</v>
+      </c>
+      <c r="W69" t="n">
+        <v>4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7694,109 +7694,109 @@
           <t>2025-11-21</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="0" t="n">
         <v>11034265.97890001</v>
       </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="C69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="G69" t="n">
-        <v>4</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="G69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K69" t="n">
-        <v>2</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5</v>
-      </c>
-      <c r="O69" t="n">
-        <v>3</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="n">
+      <c r="K69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R69" t="n">
-        <v>2</v>
-      </c>
-      <c r="S69" t="n">
+      <c r="R69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T69" t="n">
+      <c r="T69" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U69" t="n">
-        <v>3</v>
-      </c>
-      <c r="V69" t="n">
+      <c r="U69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W69" t="n">
-        <v>4</v>
-      </c>
-      <c r="X69" t="n">
+      <c r="W69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X69" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Y69" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z69" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
+      <c r="Z69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7805,6 +7805,111 @@
         <is>
           <t>2025-11-24</t>
         </is>
+      </c>
+      <c r="B70" t="n">
+        <v>10774873.17890002</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>62</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>11</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13</v>
+      </c>
+      <c r="T70" t="n">
+        <v>12</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>12</v>
+      </c>
+      <c r="W70" t="n">
+        <v>3</v>
+      </c>
+      <c r="X70" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7806,109 +7806,109 @@
           <t>2025-11-24</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="0" t="n">
         <v>10774873.17890002</v>
       </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="C70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="G70" t="n">
-        <v>4</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
-      </c>
-      <c r="I70" t="n">
+      <c r="G70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3</v>
-      </c>
-      <c r="M70" t="n">
-        <v>4</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5</v>
-      </c>
-      <c r="O70" t="n">
-        <v>3</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q70" t="n">
+      <c r="K70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R70" t="n">
-        <v>2</v>
-      </c>
-      <c r="S70" t="n">
+      <c r="R70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T70" t="n">
+      <c r="T70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U70" t="n">
-        <v>3</v>
-      </c>
-      <c r="V70" t="n">
+      <c r="U70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W70" t="n">
-        <v>3</v>
-      </c>
-      <c r="X70" t="n">
+      <c r="W70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X70" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Y70" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
+      <c r="Z70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7917,6 +7917,111 @@
         <is>
           <t>2025-11-25</t>
         </is>
+      </c>
+      <c r="B71" t="n">
+        <v>10908612.6889</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>60</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>12</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>13</v>
+      </c>
+      <c r="T71" t="n">
+        <v>12</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>12</v>
+      </c>
+      <c r="W71" t="n">
+        <v>3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -7918,109 +7918,109 @@
           <t>2025-11-25</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="0" t="n">
         <v>10908612.6889</v>
       </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G71" t="n">
-        <v>4</v>
-      </c>
-      <c r="H71" t="n">
-        <v>3</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="G71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K71" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3</v>
-      </c>
-      <c r="M71" t="n">
-        <v>4</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5</v>
-      </c>
-      <c r="O71" t="n">
-        <v>3</v>
-      </c>
-      <c r="P71" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q71" t="n">
+      <c r="K71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
-      <c r="S71" t="n">
+      <c r="R71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T71" t="n">
+      <c r="T71" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U71" t="n">
-        <v>3</v>
-      </c>
-      <c r="V71" t="n">
+      <c r="U71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W71" t="n">
-        <v>3</v>
-      </c>
-      <c r="X71" t="n">
+      <c r="W71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X71" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="Y71" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
+      <c r="Z71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8029,6 +8029,111 @@
         <is>
           <t>2025-11-26</t>
         </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10946352.17890001</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>62</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>23</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>12</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>14</v>
+      </c>
+      <c r="T72" t="n">
+        <v>12</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>12</v>
+      </c>
+      <c r="W72" t="n">
+        <v>3</v>
+      </c>
+      <c r="X72" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8030,109 +8030,109 @@
           <t>2025-11-26</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="0" t="n">
         <v>10946352.17890001</v>
       </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="C72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="G72" t="n">
-        <v>4</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="G72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K72" t="n">
-        <v>2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5</v>
-      </c>
-      <c r="O72" t="n">
-        <v>3</v>
-      </c>
-      <c r="P72" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q72" t="n">
+      <c r="K72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R72" t="n">
-        <v>2</v>
-      </c>
-      <c r="S72" t="n">
+      <c r="R72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T72" t="n">
+      <c r="T72" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U72" t="n">
-        <v>3</v>
-      </c>
-      <c r="V72" t="n">
+      <c r="U72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W72" t="n">
-        <v>3</v>
-      </c>
-      <c r="X72" t="n">
+      <c r="W72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X72" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="Y72" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
+      <c r="Z72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8141,6 +8141,111 @@
         <is>
           <t>2025-11-27</t>
         </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10744433.57790001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>60</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>22</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>11</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13</v>
+      </c>
+      <c r="T73" t="n">
+        <v>12</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>11</v>
+      </c>
+      <c r="W73" t="n">
+        <v>3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8142,109 +8142,109 @@
           <t>2025-11-27</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="0" t="n">
         <v>10744433.57790001</v>
       </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
+      <c r="C73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G73" t="n">
-        <v>4</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
-      </c>
-      <c r="I73" t="n">
+      <c r="G73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K73" t="n">
-        <v>2</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3</v>
-      </c>
-      <c r="M73" t="n">
-        <v>4</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5</v>
-      </c>
-      <c r="O73" t="n">
-        <v>3</v>
-      </c>
-      <c r="P73" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q73" t="n">
+      <c r="K73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R73" t="n">
-        <v>2</v>
-      </c>
-      <c r="S73" t="n">
+      <c r="R73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T73" t="n">
+      <c r="T73" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U73" t="n">
-        <v>3</v>
-      </c>
-      <c r="V73" t="n">
+      <c r="U73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="W73" t="n">
-        <v>3</v>
-      </c>
-      <c r="X73" t="n">
+      <c r="W73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X73" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Y73" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
+      <c r="Z73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8253,6 +8253,111 @@
         <is>
           <t>2025-11-28</t>
         </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10814085.30840001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>56</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>9</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>12</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>14</v>
+      </c>
+      <c r="T74" t="n">
+        <v>12</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>12</v>
+      </c>
+      <c r="W74" t="n">
+        <v>3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8254,109 +8254,109 @@
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="0" t="n">
         <v>10814085.30840001</v>
       </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="n">
+      <c r="C74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="G74" t="n">
-        <v>4</v>
-      </c>
-      <c r="H74" t="n">
-        <v>3</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="G74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K74" t="n">
-        <v>2</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3</v>
-      </c>
-      <c r="M74" t="n">
-        <v>4</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3</v>
-      </c>
-      <c r="P74" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q74" t="n">
+      <c r="K74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R74" t="n">
-        <v>2</v>
-      </c>
-      <c r="S74" t="n">
+      <c r="R74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T74" t="n">
+      <c r="T74" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U74" t="n">
-        <v>3</v>
-      </c>
-      <c r="V74" t="n">
+      <c r="U74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W74" t="n">
-        <v>3</v>
-      </c>
-      <c r="X74" t="n">
+      <c r="W74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X74" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Y74" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
+      <c r="Z74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8365,6 +8365,111 @@
         <is>
           <t>2025-12-01</t>
         </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10956937.04290001</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>54</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>23</v>
+      </c>
+      <c r="J75" t="n">
+        <v>9</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>12</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14</v>
+      </c>
+      <c r="T75" t="n">
+        <v>12</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>12</v>
+      </c>
+      <c r="W75" t="n">
+        <v>3</v>
+      </c>
+      <c r="X75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8366,109 +8366,109 @@
           <t>2025-12-01</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="0" t="n">
         <v>10956937.04290001</v>
       </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="C75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="G75" t="n">
-        <v>4</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" t="n">
+      <c r="G75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K75" t="n">
-        <v>2</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3</v>
-      </c>
-      <c r="M75" t="n">
-        <v>4</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5</v>
-      </c>
-      <c r="O75" t="n">
-        <v>3</v>
-      </c>
-      <c r="P75" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q75" t="n">
+      <c r="K75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R75" t="n">
-        <v>2</v>
-      </c>
-      <c r="S75" t="n">
+      <c r="R75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T75" t="n">
+      <c r="T75" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U75" t="n">
-        <v>3</v>
-      </c>
-      <c r="V75" t="n">
+      <c r="U75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W75" t="n">
-        <v>3</v>
-      </c>
-      <c r="X75" t="n">
+      <c r="W75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X75" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Y75" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
+      <c r="Z75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8477,6 +8477,111 @@
         <is>
           <t>2025-12-02</t>
         </is>
+      </c>
+      <c r="B76" t="n">
+        <v>11151750.20290002</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>55</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23</v>
+      </c>
+      <c r="J76" t="n">
+        <v>9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>12</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>13</v>
+      </c>
+      <c r="T76" t="n">
+        <v>12</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>12</v>
+      </c>
+      <c r="W76" t="n">
+        <v>3</v>
+      </c>
+      <c r="X76" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8478,109 +8478,109 @@
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="0" t="n">
         <v>11151750.20290002</v>
       </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G76" t="n">
-        <v>4</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="G76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K76" t="n">
-        <v>2</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5</v>
-      </c>
-      <c r="O76" t="n">
-        <v>3</v>
-      </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="n">
+      <c r="K76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R76" t="n">
-        <v>2</v>
-      </c>
-      <c r="S76" t="n">
+      <c r="R76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T76" t="n">
+      <c r="T76" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U76" t="n">
-        <v>3</v>
-      </c>
-      <c r="V76" t="n">
+      <c r="U76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W76" t="n">
-        <v>3</v>
-      </c>
-      <c r="X76" t="n">
+      <c r="W76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X76" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Y76" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
+      <c r="Z76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8596,6 +8596,111 @@
         <is>
           <t>2025-12-04</t>
         </is>
+      </c>
+      <c r="B78" t="n">
+        <v>11063655.60890002</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>55</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>9</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5</v>
+      </c>
+      <c r="O78" t="n">
+        <v>3</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>13</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>14</v>
+      </c>
+      <c r="T78" t="n">
+        <v>13</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>12</v>
+      </c>
+      <c r="W78" t="n">
+        <v>3</v>
+      </c>
+      <c r="X78" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8597,109 +8597,109 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="0" t="n">
         <v>11063655.60890002</v>
       </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="C78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G78" t="n">
-        <v>4</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="n">
+      <c r="G78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K78" t="n">
-        <v>2</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3</v>
-      </c>
-      <c r="M78" t="n">
-        <v>4</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5</v>
-      </c>
-      <c r="O78" t="n">
-        <v>3</v>
-      </c>
-      <c r="P78" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q78" t="n">
+      <c r="K78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R78" t="n">
-        <v>2</v>
-      </c>
-      <c r="S78" t="n">
+      <c r="R78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T78" t="n">
+      <c r="T78" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U78" t="n">
-        <v>3</v>
-      </c>
-      <c r="V78" t="n">
+      <c r="U78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W78" t="n">
-        <v>3</v>
-      </c>
-      <c r="X78" t="n">
+      <c r="W78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X78" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Y78" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
+      <c r="Z78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8708,6 +8708,111 @@
         <is>
           <t>2025-12-05</t>
         </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10866709.53590002</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>56</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" t="n">
+        <v>22</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" t="n">
+        <v>3</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>12</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13</v>
+      </c>
+      <c r="T79" t="n">
+        <v>12</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>12</v>
+      </c>
+      <c r="W79" t="n">
+        <v>3</v>
+      </c>
+      <c r="X79" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8709,109 +8709,109 @@
           <t>2025-12-05</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="0" t="n">
         <v>10866709.53590002</v>
       </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="G79" t="n">
-        <v>4</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="G79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3</v>
-      </c>
-      <c r="M79" t="n">
-        <v>4</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5</v>
-      </c>
-      <c r="O79" t="n">
-        <v>3</v>
-      </c>
-      <c r="P79" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q79" t="n">
+      <c r="K79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="R79" t="n">
-        <v>2</v>
-      </c>
-      <c r="S79" t="n">
+      <c r="R79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T79" t="n">
+      <c r="T79" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U79" t="n">
-        <v>3</v>
-      </c>
-      <c r="V79" t="n">
+      <c r="U79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W79" t="n">
-        <v>3</v>
-      </c>
-      <c r="X79" t="n">
+      <c r="W79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X79" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Y79" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
+      <c r="Z79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8820,6 +8820,111 @@
         <is>
           <t>2025-12-08</t>
         </is>
+      </c>
+      <c r="B80" t="n">
+        <v>11066890.30740002</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>54</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23</v>
+      </c>
+      <c r="J80" t="n">
+        <v>9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>13</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>14</v>
+      </c>
+      <c r="T80" t="n">
+        <v>13</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>12</v>
+      </c>
+      <c r="W80" t="n">
+        <v>3</v>
+      </c>
+      <c r="X80" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8821,109 +8821,109 @@
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="0" t="n">
         <v>11066890.30740002</v>
       </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
+      <c r="C80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="G80" t="n">
-        <v>4</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="G80" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K80" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" t="n">
-        <v>4</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5</v>
-      </c>
-      <c r="O80" t="n">
-        <v>3</v>
-      </c>
-      <c r="P80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q80" t="n">
+      <c r="K80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R80" t="n">
-        <v>2</v>
-      </c>
-      <c r="S80" t="n">
+      <c r="R80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T80" t="n">
+      <c r="T80" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U80" t="n">
-        <v>3</v>
-      </c>
-      <c r="V80" t="n">
+      <c r="U80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W80" t="n">
-        <v>3</v>
-      </c>
-      <c r="X80" t="n">
+      <c r="W80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X80" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Y80" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z80" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
+      <c r="Z80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8932,6 +8932,111 @@
         <is>
           <t>2025-12-09</t>
         </is>
+      </c>
+      <c r="B81" t="n">
+        <v>11100820.64340001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>52</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>9</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>13</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>14</v>
+      </c>
+      <c r="T81" t="n">
+        <v>13</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>13</v>
+      </c>
+      <c r="W81" t="n">
+        <v>4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8933,109 +8933,109 @@
           <t>2025-12-09</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="0" t="n">
         <v>11100820.64340001</v>
       </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="C81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G81" t="n">
-        <v>4</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="G81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K81" t="n">
-        <v>2</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3</v>
-      </c>
-      <c r="M81" t="n">
-        <v>4</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5</v>
-      </c>
-      <c r="O81" t="n">
-        <v>3</v>
-      </c>
-      <c r="P81" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q81" t="n">
+      <c r="K81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R81" t="n">
-        <v>2</v>
-      </c>
-      <c r="S81" t="n">
+      <c r="R81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T81" t="n">
+      <c r="T81" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U81" t="n">
-        <v>3</v>
-      </c>
-      <c r="V81" t="n">
+      <c r="U81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W81" t="n">
-        <v>4</v>
-      </c>
-      <c r="X81" t="n">
+      <c r="W81" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X81" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Y81" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Z81" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
+      <c r="Z81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9044,6 +9044,111 @@
         <is>
           <t>2025-12-10</t>
         </is>
+      </c>
+      <c r="B82" t="n">
+        <v>10965413.34940002</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>51</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>13</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>14</v>
+      </c>
+      <c r="T82" t="n">
+        <v>13</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>12</v>
+      </c>
+      <c r="W82" t="n">
+        <v>3</v>
+      </c>
+      <c r="X82" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9045,109 +9045,109 @@
           <t>2025-12-10</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="0" t="n">
         <v>10965413.34940002</v>
       </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="C82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G82" t="n">
-        <v>4</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="G82" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3</v>
-      </c>
-      <c r="M82" t="n">
-        <v>4</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5</v>
-      </c>
-      <c r="O82" t="n">
-        <v>3</v>
-      </c>
-      <c r="P82" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q82" t="n">
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R82" t="n">
-        <v>2</v>
-      </c>
-      <c r="S82" t="n">
+      <c r="R82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T82" t="n">
+      <c r="T82" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U82" t="n">
-        <v>3</v>
-      </c>
-      <c r="V82" t="n">
+      <c r="U82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W82" t="n">
-        <v>3</v>
-      </c>
-      <c r="X82" t="n">
+      <c r="W82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X82" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Y82" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z82" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
+      <c r="Z82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9156,6 +9156,111 @@
         <is>
           <t>2025-12-11</t>
         </is>
+      </c>
+      <c r="B83" t="n">
+        <v>11054158.94740001</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>51</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>23</v>
+      </c>
+      <c r="J83" t="n">
+        <v>9</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>3</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>13</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>14</v>
+      </c>
+      <c r="T83" t="n">
+        <v>13</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>12</v>
+      </c>
+      <c r="W83" t="n">
+        <v>3</v>
+      </c>
+      <c r="X83" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9157,109 +9157,109 @@
           <t>2025-12-11</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="0" t="n">
         <v>11054158.94740001</v>
       </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="C83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G83" t="n">
-        <v>4</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="G83" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3</v>
-      </c>
-      <c r="M83" t="n">
-        <v>4</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5</v>
-      </c>
-      <c r="O83" t="n">
-        <v>3</v>
-      </c>
-      <c r="P83" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q83" t="n">
+      <c r="K83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R83" t="n">
-        <v>2</v>
-      </c>
-      <c r="S83" t="n">
+      <c r="R83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T83" t="n">
+      <c r="T83" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U83" t="n">
-        <v>3</v>
-      </c>
-      <c r="V83" t="n">
+      <c r="U83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W83" t="n">
-        <v>3</v>
-      </c>
-      <c r="X83" t="n">
+      <c r="W83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X83" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="Y83" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
+      <c r="Z83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9268,6 +9268,111 @@
         <is>
           <t>2025-12-12</t>
         </is>
+      </c>
+      <c r="B84" t="n">
+        <v>11047941.40465001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>52</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>23</v>
+      </c>
+      <c r="J84" t="n">
+        <v>9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="n">
+        <v>3</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>13</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>14</v>
+      </c>
+      <c r="T84" t="n">
+        <v>13</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>12</v>
+      </c>
+      <c r="W84" t="n">
+        <v>3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9269,109 +9269,109 @@
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="0" t="n">
         <v>11047941.40465001</v>
       </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="C84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G84" t="n">
-        <v>4</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="G84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2</v>
-      </c>
-      <c r="M84" t="n">
-        <v>4</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5</v>
-      </c>
-      <c r="O84" t="n">
-        <v>3</v>
-      </c>
-      <c r="P84" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q84" t="n">
+      <c r="K84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R84" t="n">
-        <v>2</v>
-      </c>
-      <c r="S84" t="n">
+      <c r="R84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T84" t="n">
+      <c r="T84" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U84" t="n">
-        <v>3</v>
-      </c>
-      <c r="V84" t="n">
+      <c r="U84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W84" t="n">
-        <v>3</v>
-      </c>
-      <c r="X84" t="n">
+      <c r="W84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X84" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="Y84" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z84" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
+      <c r="Z84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9380,6 +9380,111 @@
         <is>
           <t>2025-12-15</t>
         </is>
+      </c>
+      <c r="B85" t="n">
+        <v>11091436.40465001</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>50</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>3</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>13</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>14</v>
+      </c>
+      <c r="T85" t="n">
+        <v>13</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>12</v>
+      </c>
+      <c r="W85" t="n">
+        <v>3</v>
+      </c>
+      <c r="X85" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9381,109 +9381,109 @@
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="0" t="n">
         <v>11091436.40465001</v>
       </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="C85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G85" t="n">
-        <v>4</v>
-      </c>
-      <c r="H85" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" t="n">
+      <c r="G85" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2</v>
-      </c>
-      <c r="M85" t="n">
-        <v>4</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5</v>
-      </c>
-      <c r="O85" t="n">
-        <v>3</v>
-      </c>
-      <c r="P85" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q85" t="n">
+      <c r="K85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R85" t="n">
-        <v>2</v>
-      </c>
-      <c r="S85" t="n">
+      <c r="R85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T85" t="n">
+      <c r="T85" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U85" t="n">
-        <v>3</v>
-      </c>
-      <c r="V85" t="n">
+      <c r="U85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W85" t="n">
-        <v>3</v>
-      </c>
-      <c r="X85" t="n">
+      <c r="W85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X85" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="Y85" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z85" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
+      <c r="Z85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9492,6 +9492,111 @@
         <is>
           <t>2025-12-16</t>
         </is>
+      </c>
+      <c r="B86" t="n">
+        <v>11032493.40465001</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>51</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>23</v>
+      </c>
+      <c r="J86" t="n">
+        <v>9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>3</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>13</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13</v>
+      </c>
+      <c r="T86" t="n">
+        <v>12</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>12</v>
+      </c>
+      <c r="W86" t="n">
+        <v>3</v>
+      </c>
+      <c r="X86" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9493,109 +9493,109 @@
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="0" t="n">
         <v>11032493.40465001</v>
       </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="C86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G86" t="n">
-        <v>4</v>
-      </c>
-      <c r="H86" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="G86" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2</v>
-      </c>
-      <c r="M86" t="n">
-        <v>4</v>
-      </c>
-      <c r="N86" t="n">
-        <v>5</v>
-      </c>
-      <c r="O86" t="n">
-        <v>3</v>
-      </c>
-      <c r="P86" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q86" t="n">
+      <c r="K86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R86" t="n">
-        <v>2</v>
-      </c>
-      <c r="S86" t="n">
+      <c r="R86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T86" t="n">
+      <c r="T86" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U86" t="n">
-        <v>3</v>
-      </c>
-      <c r="V86" t="n">
+      <c r="U86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W86" t="n">
-        <v>3</v>
-      </c>
-      <c r="X86" t="n">
+      <c r="W86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X86" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y86" t="n">
+      <c r="Y86" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z86" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
+      <c r="Z86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9604,6 +9604,111 @@
         <is>
           <t>2025-12-17</t>
         </is>
+      </c>
+      <c r="B87" t="n">
+        <v>10913705.77965001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>50</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>23</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>13</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>14</v>
+      </c>
+      <c r="T87" t="n">
+        <v>12</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>12</v>
+      </c>
+      <c r="W87" t="n">
+        <v>3</v>
+      </c>
+      <c r="X87" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9605,109 +9605,109 @@
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="0" t="n">
         <v>10913705.77965001</v>
       </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="C87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G87" t="n">
-        <v>4</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="n">
+      <c r="G87" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K87" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2</v>
-      </c>
-      <c r="M87" t="n">
-        <v>4</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5</v>
-      </c>
-      <c r="O87" t="n">
-        <v>3</v>
-      </c>
-      <c r="P87" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q87" t="n">
+      <c r="K87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R87" t="n">
-        <v>2</v>
-      </c>
-      <c r="S87" t="n">
+      <c r="R87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T87" t="n">
+      <c r="T87" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U87" t="n">
-        <v>3</v>
-      </c>
-      <c r="V87" t="n">
+      <c r="U87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W87" t="n">
-        <v>3</v>
-      </c>
-      <c r="X87" t="n">
+      <c r="W87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X87" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="Y87" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z87" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
+      <c r="Z87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9716,6 +9716,111 @@
         <is>
           <t>2025-12-18</t>
         </is>
+      </c>
+      <c r="B88" t="n">
+        <v>11095969.77965001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>50</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>13</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>14</v>
+      </c>
+      <c r="T88" t="n">
+        <v>12</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>12</v>
+      </c>
+      <c r="W88" t="n">
+        <v>3</v>
+      </c>
+      <c r="X88" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9717,109 +9717,109 @@
           <t>2025-12-18</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="0" t="n">
         <v>11095969.77965001</v>
       </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="C88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G88" t="n">
-        <v>4</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="G88" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I88" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2</v>
-      </c>
-      <c r="M88" t="n">
-        <v>4</v>
-      </c>
-      <c r="N88" t="n">
-        <v>5</v>
-      </c>
-      <c r="O88" t="n">
-        <v>3</v>
-      </c>
-      <c r="P88" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q88" t="n">
+      <c r="K88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R88" t="n">
-        <v>2</v>
-      </c>
-      <c r="S88" t="n">
+      <c r="R88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T88" t="n">
+      <c r="T88" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="U88" t="n">
-        <v>3</v>
-      </c>
-      <c r="V88" t="n">
+      <c r="U88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W88" t="n">
-        <v>3</v>
-      </c>
-      <c r="X88" t="n">
+      <c r="W88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X88" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y88" t="n">
+      <c r="Y88" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z88" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
+      <c r="Z88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9828,6 +9828,111 @@
         <is>
           <t>2025-12-19</t>
         </is>
+      </c>
+      <c r="B89" t="n">
+        <v>11130569.72783001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>50</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>13</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>14</v>
+      </c>
+      <c r="T89" t="n">
+        <v>13</v>
+      </c>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>12</v>
+      </c>
+      <c r="W89" t="n">
+        <v>3</v>
+      </c>
+      <c r="X89" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9829,109 +9829,109 @@
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="0" t="n">
         <v>11130569.72783001</v>
       </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="C89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G89" t="n">
-        <v>4</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="G89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I89" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K89" t="n">
-        <v>2</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2</v>
-      </c>
-      <c r="M89" t="n">
-        <v>4</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5</v>
-      </c>
-      <c r="O89" t="n">
-        <v>3</v>
-      </c>
-      <c r="P89" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q89" t="n">
+      <c r="K89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R89" t="n">
-        <v>2</v>
-      </c>
-      <c r="S89" t="n">
+      <c r="R89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T89" t="n">
+      <c r="T89" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U89" t="n">
-        <v>3</v>
-      </c>
-      <c r="V89" t="n">
+      <c r="U89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W89" t="n">
-        <v>3</v>
-      </c>
-      <c r="X89" t="n">
+      <c r="W89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X89" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="Y89" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z89" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
+      <c r="Z89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9940,6 +9940,111 @@
         <is>
           <t>2025-12-22</t>
         </is>
+      </c>
+      <c r="B90" t="n">
+        <v>11219463.60883001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>50</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>14</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>14</v>
+      </c>
+      <c r="T90" t="n">
+        <v>13</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>13</v>
+      </c>
+      <c r="W90" t="n">
+        <v>4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -9941,109 +9941,109 @@
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="0" t="n">
         <v>11219463.60883001</v>
       </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="C90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G90" t="n">
-        <v>4</v>
-      </c>
-      <c r="H90" t="n">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="G90" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K90" t="n">
-        <v>2</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3</v>
-      </c>
-      <c r="M90" t="n">
-        <v>4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5</v>
-      </c>
-      <c r="O90" t="n">
-        <v>3</v>
-      </c>
-      <c r="P90" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q90" t="n">
+      <c r="K90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R90" t="n">
-        <v>2</v>
-      </c>
-      <c r="S90" t="n">
+      <c r="R90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T90" t="n">
+      <c r="T90" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U90" t="n">
-        <v>3</v>
-      </c>
-      <c r="V90" t="n">
+      <c r="U90" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W90" t="n">
-        <v>4</v>
-      </c>
-      <c r="X90" t="n">
+      <c r="W90" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X90" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y90" t="n">
+      <c r="Y90" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
+      <c r="Z90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10052,6 +10052,111 @@
         <is>
           <t>2025-12-23</t>
         </is>
+      </c>
+      <c r="B91" t="n">
+        <v>11382396.26883001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>50</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>14</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>14</v>
+      </c>
+      <c r="T91" t="n">
+        <v>13</v>
+      </c>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>13</v>
+      </c>
+      <c r="W91" t="n">
+        <v>4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -10053,109 +10053,109 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="0" t="n">
         <v>11382396.26883001</v>
       </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="C91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G91" t="n">
-        <v>4</v>
-      </c>
-      <c r="H91" t="n">
-        <v>4</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="G91" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I91" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K91" t="n">
-        <v>2</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" t="n">
-        <v>4</v>
-      </c>
-      <c r="N91" t="n">
-        <v>5</v>
-      </c>
-      <c r="O91" t="n">
-        <v>3</v>
-      </c>
-      <c r="P91" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q91" t="n">
+      <c r="K91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R91" t="n">
-        <v>2</v>
-      </c>
-      <c r="S91" t="n">
+      <c r="R91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T91" t="n">
+      <c r="T91" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U91" t="n">
-        <v>4</v>
-      </c>
-      <c r="V91" t="n">
+      <c r="U91" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W91" t="n">
-        <v>4</v>
-      </c>
-      <c r="X91" t="n">
+      <c r="W91" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X91" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y91" t="n">
+      <c r="Y91" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z91" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
+      <c r="Z91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10164,6 +10164,111 @@
         <is>
           <t>2025-12-24</t>
         </is>
+      </c>
+      <c r="B92" t="n">
+        <v>11593908.46383001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>50</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>14</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>13</v>
+      </c>
+      <c r="T92" t="n">
+        <v>13</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>12</v>
+      </c>
+      <c r="W92" t="n">
+        <v>3</v>
+      </c>
+      <c r="X92" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -10165,109 +10165,109 @@
           <t>2025-12-24</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="0" t="n">
         <v>11593908.46383001</v>
       </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="C92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G92" t="n">
-        <v>4</v>
-      </c>
-      <c r="H92" t="n">
-        <v>4</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="G92" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K92" t="n">
-        <v>2</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2</v>
-      </c>
-      <c r="M92" t="n">
-        <v>4</v>
-      </c>
-      <c r="N92" t="n">
-        <v>5</v>
-      </c>
-      <c r="O92" t="n">
-        <v>3</v>
-      </c>
-      <c r="P92" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q92" t="n">
+      <c r="K92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R92" t="n">
-        <v>2</v>
-      </c>
-      <c r="S92" t="n">
+      <c r="R92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T92" t="n">
+      <c r="T92" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U92" t="n">
-        <v>3</v>
-      </c>
-      <c r="V92" t="n">
+      <c r="U92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W92" t="n">
-        <v>3</v>
-      </c>
-      <c r="X92" t="n">
+      <c r="W92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X92" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y92" t="n">
+      <c r="Y92" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z92" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
+      <c r="Z92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10276,6 +10276,111 @@
         <is>
           <t>2025-12-25</t>
         </is>
+      </c>
+      <c r="B93" t="n">
+        <v>11768617.17733002</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>51</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>14</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>13</v>
+      </c>
+      <c r="T93" t="n">
+        <v>13</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>12</v>
+      </c>
+      <c r="W93" t="n">
+        <v>3</v>
+      </c>
+      <c r="X93" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -10277,109 +10277,109 @@
           <t>2025-12-25</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="0" t="n">
         <v>11768617.17733002</v>
       </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="C93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G93" t="n">
-        <v>4</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="G93" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K93" t="n">
-        <v>2</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2</v>
-      </c>
-      <c r="M93" t="n">
-        <v>4</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5</v>
-      </c>
-      <c r="O93" t="n">
-        <v>3</v>
-      </c>
-      <c r="P93" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q93" t="n">
+      <c r="K93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R93" t="n">
-        <v>2</v>
-      </c>
-      <c r="S93" t="n">
+      <c r="R93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="T93" t="n">
+      <c r="T93" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U93" t="n">
-        <v>3</v>
-      </c>
-      <c r="V93" t="n">
+      <c r="U93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W93" t="n">
-        <v>3</v>
-      </c>
-      <c r="X93" t="n">
+      <c r="W93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X93" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y93" t="n">
+      <c r="Y93" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
+      <c r="Z93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10388,6 +10388,111 @@
         <is>
           <t>2025-12-26</t>
         </is>
+      </c>
+      <c r="B94" t="n">
+        <v>11753551.54733001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>50</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>3</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>14</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>14</v>
+      </c>
+      <c r="T94" t="n">
+        <v>13</v>
+      </c>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>13</v>
+      </c>
+      <c r="W94" t="n">
+        <v>4</v>
+      </c>
+      <c r="X94" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -10389,109 +10389,109 @@
           <t>2025-12-26</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="0" t="n">
         <v>11753551.54733001</v>
       </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="C94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G94" t="n">
-        <v>4</v>
-      </c>
-      <c r="H94" t="n">
-        <v>4</v>
-      </c>
-      <c r="I94" t="n">
+      <c r="G94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I94" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K94" t="n">
-        <v>2</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2</v>
-      </c>
-      <c r="M94" t="n">
-        <v>4</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" t="n">
-        <v>3</v>
-      </c>
-      <c r="P94" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q94" t="n">
+      <c r="K94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R94" t="n">
-        <v>2</v>
-      </c>
-      <c r="S94" t="n">
+      <c r="R94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T94" t="n">
+      <c r="T94" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U94" t="n">
-        <v>4</v>
-      </c>
-      <c r="V94" t="n">
+      <c r="U94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W94" t="n">
-        <v>4</v>
-      </c>
-      <c r="X94" t="n">
+      <c r="W94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X94" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y94" t="n">
+      <c r="Y94" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z94" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ94" t="n">
+      <c r="Z94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10500,6 +10500,111 @@
         <is>
           <t>2025-12-29</t>
         </is>
+      </c>
+      <c r="B95" t="n">
+        <v>11955538.88783001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>51</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>15</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>15</v>
+      </c>
+      <c r="T95" t="n">
+        <v>14</v>
+      </c>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>14</v>
+      </c>
+      <c r="W95" t="n">
+        <v>4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -10501,109 +10501,109 @@
           <t>2025-12-29</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="0" t="n">
         <v>11955538.88783001</v>
       </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="C95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G95" t="n">
-        <v>4</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="G95" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I95" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K95" t="n">
-        <v>2</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>4</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5</v>
-      </c>
-      <c r="O95" t="n">
-        <v>3</v>
-      </c>
-      <c r="P95" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q95" t="n">
+      <c r="K95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="R95" t="n">
-        <v>2</v>
-      </c>
-      <c r="S95" t="n">
+      <c r="R95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="T95" t="n">
+      <c r="T95" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="U95" t="n">
-        <v>4</v>
-      </c>
-      <c r="V95" t="n">
+      <c r="U95" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="W95" t="n">
-        <v>4</v>
-      </c>
-      <c r="X95" t="n">
+      <c r="W95" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X95" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="Y95" t="n">
+      <c r="Y95" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Z95" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
+      <c r="Z95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10612,6 +10612,111 @@
         <is>
           <t>2025-12-30</t>
         </is>
+      </c>
+      <c r="B96" t="n">
+        <v>11683700.38783</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>51</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>25</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>14</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>14</v>
+      </c>
+      <c r="T96" t="n">
+        <v>13</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>13</v>
+      </c>
+      <c r="W96" t="n">
+        <v>3</v>
+      </c>
+      <c r="X96" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -10613,109 +10613,109 @@
           <t>2025-12-30</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="0" t="n">
         <v>11683700.38783</v>
       </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="C96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="G96" t="n">
-        <v>4</v>
-      </c>
-      <c r="H96" t="n">
-        <v>4</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="G96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K96" t="n">
-        <v>2</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2</v>
-      </c>
-      <c r="M96" t="n">
-        <v>4</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5</v>
-      </c>
-      <c r="O96" t="n">
-        <v>3</v>
-      </c>
-      <c r="P96" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q96" t="n">
+      <c r="K96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R96" t="n">
-        <v>2</v>
-      </c>
-      <c r="S96" t="n">
+      <c r="R96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="T96" t="n">
+      <c r="T96" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="U96" t="n">
-        <v>3</v>
-      </c>
-      <c r="V96" t="n">
+      <c r="U96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="W96" t="n">
-        <v>3</v>
-      </c>
-      <c r="X96" t="n">
+      <c r="W96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X96" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="Y96" t="n">
+      <c r="Y96" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z96" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
+      <c r="Z96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10724,6 +10724,111 @@
         <is>
           <t>2025-12-31</t>
         </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11646644.65583001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>47</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>14</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>13</v>
+      </c>
+      <c r="T97" t="n">
+        <v>13</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>12</v>
+      </c>
+      <c r="W97" t="n">
+        <v>3</v>
+      </c>
+      <c r="X97" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\中信资管研究\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\！需迁回D盘！\实习相关\东财FOF量化\课题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3F4EC-7D11-4CB8-80E7-C555ACA3B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BF9A6-7FB8-4F06-B06E-6E9903065904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="weights" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" calcOnSave="0" concurrentManualCount="32"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11897,10 +11897,220 @@
       <c r="A103" s="5">
         <v>46034</v>
       </c>
+      <c r="B103">
+        <v>12430469.48683</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>48</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>22</v>
+      </c>
+      <c r="J103">
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>12</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>12</v>
+      </c>
+      <c r="T103">
+        <v>11</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>11</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="X103">
+        <v>9</v>
+      </c>
+      <c r="Y103">
+        <v>8</v>
+      </c>
+      <c r="Z103">
+        <v>2</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>46035</v>
+      </c>
+      <c r="B104">
+        <v>12357844.67083</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>50</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>21</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>12</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>12</v>
+      </c>
+      <c r="T104">
+        <v>11</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>10</v>
+      </c>
+      <c r="W104">
+        <v>3</v>
+      </c>
+      <c r="X104">
+        <v>9</v>
+      </c>
+      <c r="Y104">
+        <v>8</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.3">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\！需迁回D盘！\实习相关\东财FOF量化\课题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BF9A6-7FB8-4F06-B06E-6E9903065904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75922E0A-B1B0-448E-A5B7-CD22C033DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +598,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +874,7 @@
   <dimension ref="A1:AK339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -12117,10 +12120,220 @@
       <c r="A105" s="5">
         <v>46036</v>
       </c>
+      <c r="B105" s="8">
+        <v>12535756.086580001</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8">
+        <v>1</v>
+      </c>
+      <c r="E105" s="8">
+        <v>1</v>
+      </c>
+      <c r="F105" s="8">
+        <v>49</v>
+      </c>
+      <c r="G105" s="8">
+        <v>4</v>
+      </c>
+      <c r="H105" s="8">
+        <v>3</v>
+      </c>
+      <c r="I105" s="8">
+        <v>21</v>
+      </c>
+      <c r="J105" s="8">
+        <v>8</v>
+      </c>
+      <c r="K105" s="8">
+        <v>1</v>
+      </c>
+      <c r="L105" s="8">
+        <v>1</v>
+      </c>
+      <c r="M105" s="8">
+        <v>3</v>
+      </c>
+      <c r="N105" s="8">
+        <v>4</v>
+      </c>
+      <c r="O105" s="8">
+        <v>2</v>
+      </c>
+      <c r="P105" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>12</v>
+      </c>
+      <c r="R105" s="8">
+        <v>2</v>
+      </c>
+      <c r="S105" s="8">
+        <v>12</v>
+      </c>
+      <c r="T105" s="8">
+        <v>11</v>
+      </c>
+      <c r="U105" s="8">
+        <v>3</v>
+      </c>
+      <c r="V105" s="8">
+        <v>10</v>
+      </c>
+      <c r="W105" s="8">
+        <v>3</v>
+      </c>
+      <c r="X105" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y105" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z105" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>46037</v>
+      </c>
+      <c r="B106" s="8">
+        <v>12543461.36908</v>
+      </c>
+      <c r="C106" s="8">
+        <v>1</v>
+      </c>
+      <c r="D106" s="8">
+        <v>1</v>
+      </c>
+      <c r="E106" s="8">
+        <v>1</v>
+      </c>
+      <c r="F106" s="8">
+        <v>49</v>
+      </c>
+      <c r="G106" s="8">
+        <v>4</v>
+      </c>
+      <c r="H106" s="8">
+        <v>3</v>
+      </c>
+      <c r="I106" s="8">
+        <v>21</v>
+      </c>
+      <c r="J106" s="8">
+        <v>8</v>
+      </c>
+      <c r="K106" s="8">
+        <v>1</v>
+      </c>
+      <c r="L106" s="8">
+        <v>2</v>
+      </c>
+      <c r="M106" s="8">
+        <v>3</v>
+      </c>
+      <c r="N106" s="8">
+        <v>4</v>
+      </c>
+      <c r="O106" s="8">
+        <v>2</v>
+      </c>
+      <c r="P106" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>12</v>
+      </c>
+      <c r="R106" s="8">
+        <v>2</v>
+      </c>
+      <c r="S106" s="8">
+        <v>12</v>
+      </c>
+      <c r="T106" s="8">
+        <v>11</v>
+      </c>
+      <c r="U106" s="8">
+        <v>3</v>
+      </c>
+      <c r="V106" s="8">
+        <v>10</v>
+      </c>
+      <c r="W106" s="8">
+        <v>3</v>
+      </c>
+      <c r="X106" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y106" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z106" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.3">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12155,115 +12155,220 @@
       <c r="A107" s="5" t="n">
         <v>46038</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="8" t="n">
         <v>12488610.21258</v>
       </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="C107" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="G107" t="n">
-        <v>4</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="n">
+      <c r="G107" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H107" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K107" t="n">
-        <v>1</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2</v>
-      </c>
-      <c r="M107" t="n">
-        <v>3</v>
-      </c>
-      <c r="N107" t="n">
-        <v>4</v>
-      </c>
-      <c r="O107" t="n">
-        <v>3</v>
-      </c>
-      <c r="P107" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q107" t="n">
+      <c r="K107" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P107" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R107" t="n">
-        <v>2</v>
-      </c>
-      <c r="S107" t="n">
+      <c r="R107" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T107" t="n">
+      <c r="T107" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="U107" t="n">
-        <v>3</v>
-      </c>
-      <c r="V107" t="n">
+      <c r="U107" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="W107" t="n">
-        <v>3</v>
-      </c>
-      <c r="X107" t="n">
+      <c r="W107" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X107" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="Y107" t="n">
+      <c r="Y107" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z107" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" t="n">
+      <c r="Z107" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="n">
         <v>46041</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12544769.28583001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>21</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="n">
+        <v>2</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>12</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>12</v>
+      </c>
+      <c r="T108" t="n">
+        <v>11</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>11</v>
+      </c>
+      <c r="W108" t="n">
+        <v>3</v>
+      </c>
+      <c r="X108" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12265,115 +12265,220 @@
       <c r="A108" s="5" t="n">
         <v>46041</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="8" t="n">
         <v>12544769.28583001</v>
       </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="C108" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="G108" t="n">
-        <v>4</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="n">
+      <c r="G108" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K108" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="n">
-        <v>3</v>
-      </c>
-      <c r="N108" t="n">
-        <v>4</v>
-      </c>
-      <c r="O108" t="n">
-        <v>2</v>
-      </c>
-      <c r="P108" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q108" t="n">
+      <c r="K108" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P108" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R108" t="n">
-        <v>2</v>
-      </c>
-      <c r="S108" t="n">
+      <c r="R108" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T108" t="n">
+      <c r="T108" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="U108" t="n">
-        <v>3</v>
-      </c>
-      <c r="V108" t="n">
+      <c r="U108" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="W108" t="n">
-        <v>3</v>
-      </c>
-      <c r="X108" t="n">
+      <c r="W108" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X108" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="Y108" t="n">
+      <c r="Y108" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z108" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
+      <c r="Z108" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="n">
         <v>46042</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12610009.28583002</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>49</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" t="n">
+        <v>21</v>
+      </c>
+      <c r="J109" t="n">
+        <v>8</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>12</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>12</v>
+      </c>
+      <c r="T109" t="n">
+        <v>11</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>11</v>
+      </c>
+      <c r="W109" t="n">
+        <v>3</v>
+      </c>
+      <c r="X109" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12375,115 +12375,220 @@
       <c r="A109" s="5" t="n">
         <v>46042</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="8" t="n">
         <v>12610009.28583002</v>
       </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="C109" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="G109" t="n">
-        <v>4</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" t="n">
+      <c r="G109" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H109" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K109" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="n">
-        <v>3</v>
-      </c>
-      <c r="N109" t="n">
-        <v>4</v>
-      </c>
-      <c r="O109" t="n">
-        <v>2</v>
-      </c>
-      <c r="P109" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q109" t="n">
+      <c r="K109" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P109" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R109" t="n">
-        <v>2</v>
-      </c>
-      <c r="S109" t="n">
+      <c r="R109" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T109" t="n">
+      <c r="T109" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="U109" t="n">
-        <v>3</v>
-      </c>
-      <c r="V109" t="n">
+      <c r="U109" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="W109" t="n">
-        <v>3</v>
-      </c>
-      <c r="X109" t="n">
+      <c r="W109" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X109" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="Y109" t="n">
+      <c r="Y109" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z109" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ109" t="n">
+      <c r="Z109" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="n">
         <v>46043</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12815023.28583001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>49</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>22</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="n">
+        <v>2</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>12</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>12</v>
+      </c>
+      <c r="T110" t="n">
+        <v>12</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>11</v>
+      </c>
+      <c r="W110" t="n">
+        <v>3</v>
+      </c>
+      <c r="X110" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12485,115 +12485,220 @@
       <c r="A110" s="5" t="n">
         <v>46043</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="8" t="n">
         <v>12815023.28583001</v>
       </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="C110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="G110" t="n">
-        <v>4</v>
-      </c>
-      <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="n">
+      <c r="G110" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H110" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K110" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="n">
-        <v>3</v>
-      </c>
-      <c r="N110" t="n">
-        <v>4</v>
-      </c>
-      <c r="O110" t="n">
-        <v>2</v>
-      </c>
-      <c r="P110" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q110" t="n">
+      <c r="K110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P110" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R110" t="n">
-        <v>2</v>
-      </c>
-      <c r="S110" t="n">
+      <c r="R110" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T110" t="n">
+      <c r="T110" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="U110" t="n">
-        <v>3</v>
-      </c>
-      <c r="V110" t="n">
+      <c r="U110" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="W110" t="n">
-        <v>3</v>
-      </c>
-      <c r="X110" t="n">
+      <c r="W110" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X110" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Y110" t="n">
+      <c r="Y110" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z110" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ110" t="n">
+      <c r="Z110" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="n">
         <v>46044</v>
+      </c>
+      <c r="B111" t="n">
+        <v>12864785.38008001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>50</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" t="n">
+        <v>22</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4</v>
+      </c>
+      <c r="O111" t="n">
+        <v>3</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>12</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>11</v>
+      </c>
+      <c r="T111" t="n">
+        <v>12</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>11</v>
+      </c>
+      <c r="W111" t="n">
+        <v>3</v>
+      </c>
+      <c r="X111" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12595,115 +12595,220 @@
       <c r="A111" s="5" t="n">
         <v>46044</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="8" t="n">
         <v>12864785.38008001</v>
       </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="n">
+      <c r="C111" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="G111" t="n">
-        <v>3</v>
-      </c>
-      <c r="H111" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" t="n">
+      <c r="G111" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K111" t="n">
-        <v>1</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2</v>
-      </c>
-      <c r="M111" t="n">
-        <v>3</v>
-      </c>
-      <c r="N111" t="n">
-        <v>4</v>
-      </c>
-      <c r="O111" t="n">
-        <v>3</v>
-      </c>
-      <c r="P111" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q111" t="n">
+      <c r="K111" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O111" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P111" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R111" t="n">
-        <v>2</v>
-      </c>
-      <c r="S111" t="n">
+      <c r="R111" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="T111" t="n">
+      <c r="T111" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="U111" t="n">
-        <v>3</v>
-      </c>
-      <c r="V111" t="n">
+      <c r="U111" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="W111" t="n">
-        <v>3</v>
-      </c>
-      <c r="X111" t="n">
+      <c r="W111" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X111" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Y111" t="n">
+      <c r="Y111" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z111" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ111" t="n">
+      <c r="Z111" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="n">
         <v>46045</v>
+      </c>
+      <c r="B112" t="n">
+        <v>13149216.62333001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>50</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>22</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>13</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>12</v>
+      </c>
+      <c r="T112" t="n">
+        <v>12</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>10</v>
+      </c>
+      <c r="W112" t="n">
+        <v>3</v>
+      </c>
+      <c r="X112" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12705,115 +12705,220 @@
       <c r="A112" s="5" t="n">
         <v>46045</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="8" t="n">
         <v>13149216.62333001</v>
       </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" t="n">
+      <c r="C112" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="G112" t="n">
-        <v>3</v>
-      </c>
-      <c r="H112" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" t="n">
+      <c r="G112" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K112" t="n">
-        <v>1</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="n">
-        <v>3</v>
-      </c>
-      <c r="N112" t="n">
-        <v>4</v>
-      </c>
-      <c r="O112" t="n">
-        <v>2</v>
-      </c>
-      <c r="P112" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q112" t="n">
+      <c r="K112" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P112" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="R112" t="n">
-        <v>2</v>
-      </c>
-      <c r="S112" t="n">
+      <c r="R112" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T112" t="n">
+      <c r="T112" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="U112" t="n">
-        <v>3</v>
-      </c>
-      <c r="V112" t="n">
+      <c r="U112" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="W112" t="n">
-        <v>3</v>
-      </c>
-      <c r="X112" t="n">
+      <c r="W112" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X112" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Y112" t="n">
+      <c r="Y112" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z112" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ112" t="n">
+      <c r="Z112" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="n">
         <v>46048</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13249491.62333001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>51</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>22</v>
+      </c>
+      <c r="J113" t="n">
+        <v>8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>12</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>12</v>
+      </c>
+      <c r="T113" t="n">
+        <v>12</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>10</v>
+      </c>
+      <c r="W113" t="n">
+        <v>3</v>
+      </c>
+      <c r="X113" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12815,115 +12815,220 @@
       <c r="A113" s="5" t="n">
         <v>46048</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="8" t="n">
         <v>13249491.62333001</v>
       </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" t="n">
+      <c r="C113" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G113" t="n">
-        <v>3</v>
-      </c>
-      <c r="H113" t="n">
-        <v>3</v>
-      </c>
-      <c r="I113" t="n">
+      <c r="G113" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K113" t="n">
-        <v>1</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="n">
-        <v>3</v>
-      </c>
-      <c r="N113" t="n">
-        <v>4</v>
-      </c>
-      <c r="O113" t="n">
-        <v>2</v>
-      </c>
-      <c r="P113" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q113" t="n">
+      <c r="K113" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R113" t="n">
-        <v>2</v>
-      </c>
-      <c r="S113" t="n">
+      <c r="R113" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T113" t="n">
+      <c r="T113" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="U113" t="n">
-        <v>3</v>
-      </c>
-      <c r="V113" t="n">
+      <c r="U113" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="W113" t="n">
-        <v>3</v>
-      </c>
-      <c r="X113" t="n">
+      <c r="W113" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X113" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Y113" t="n">
+      <c r="Y113" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z113" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ113" t="n">
+      <c r="Z113" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="n">
         <v>46049</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13269721.62333002</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="n">
+        <v>22</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>12</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>12</v>
+      </c>
+      <c r="T114" t="n">
+        <v>11</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>10</v>
+      </c>
+      <c r="W114" t="n">
+        <v>3</v>
+      </c>
+      <c r="X114" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -12925,115 +12925,220 @@
       <c r="A114" s="5" t="n">
         <v>46049</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="8" t="n">
         <v>13269721.62333002</v>
       </c>
-      <c r="C114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
+      <c r="C114" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G114" t="n">
-        <v>3</v>
-      </c>
-      <c r="H114" t="n">
-        <v>3</v>
-      </c>
-      <c r="I114" t="n">
+      <c r="G114" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K114" t="n">
-        <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="n">
-        <v>3</v>
-      </c>
-      <c r="N114" t="n">
-        <v>4</v>
-      </c>
-      <c r="O114" t="n">
-        <v>2</v>
-      </c>
-      <c r="P114" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q114" t="n">
+      <c r="K114" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P114" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R114" t="n">
-        <v>2</v>
-      </c>
-      <c r="S114" t="n">
+      <c r="R114" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="T114" t="n">
+      <c r="T114" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="U114" t="n">
-        <v>3</v>
-      </c>
-      <c r="V114" t="n">
+      <c r="U114" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="W114" t="n">
-        <v>3</v>
-      </c>
-      <c r="X114" t="n">
+      <c r="W114" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X114" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Y114" t="n">
+      <c r="Y114" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z114" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ114" t="n">
+      <c r="Z114" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="n">
         <v>46050</v>
+      </c>
+      <c r="B115" t="n">
+        <v>13520077.02733001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>52</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" t="n">
+        <v>21</v>
+      </c>
+      <c r="J115" t="n">
+        <v>8</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" t="n">
+        <v>2</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>12</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2</v>
+      </c>
+      <c r="S115" t="n">
+        <v>11</v>
+      </c>
+      <c r="T115" t="n">
+        <v>11</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3</v>
+      </c>
+      <c r="V115" t="n">
+        <v>10</v>
+      </c>
+      <c r="W115" t="n">
+        <v>3</v>
+      </c>
+      <c r="X115" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13035,115 +13035,220 @@
       <c r="A115" s="5" t="n">
         <v>46050</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="8" t="n">
         <v>13520077.02733001</v>
       </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" t="n">
+      <c r="C115" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="G115" t="n">
-        <v>3</v>
-      </c>
-      <c r="H115" t="n">
-        <v>3</v>
-      </c>
-      <c r="I115" t="n">
+      <c r="G115" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K115" t="n">
-        <v>1</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="n">
-        <v>3</v>
-      </c>
-      <c r="N115" t="n">
-        <v>4</v>
-      </c>
-      <c r="O115" t="n">
-        <v>2</v>
-      </c>
-      <c r="P115" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q115" t="n">
+      <c r="K115" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O115" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P115" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R115" t="n">
-        <v>2</v>
-      </c>
-      <c r="S115" t="n">
+      <c r="R115" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S115" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="T115" t="n">
+      <c r="T115" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="U115" t="n">
-        <v>3</v>
-      </c>
-      <c r="V115" t="n">
+      <c r="U115" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V115" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="W115" t="n">
-        <v>3</v>
-      </c>
-      <c r="X115" t="n">
+      <c r="W115" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X115" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="Y115" t="n">
+      <c r="Y115" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Z115" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ115" t="n">
+      <c r="Z115" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="n">
         <v>46051</v>
+      </c>
+      <c r="B116" t="n">
+        <v>13859550.66133001</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>53</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>20</v>
+      </c>
+      <c r="J116" t="n">
+        <v>8</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="n">
+        <v>2</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>12</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>11</v>
+      </c>
+      <c r="T116" t="n">
+        <v>11</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>10</v>
+      </c>
+      <c r="W116" t="n">
+        <v>3</v>
+      </c>
+      <c r="X116" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13145,115 +13145,220 @@
       <c r="A116" s="5" t="n">
         <v>46051</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="8" t="n">
         <v>13859550.66133001</v>
       </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="C116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="G116" t="n">
-        <v>3</v>
-      </c>
-      <c r="H116" t="n">
-        <v>3</v>
-      </c>
-      <c r="I116" t="n">
+      <c r="G116" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K116" t="n">
-        <v>1</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="n">
-        <v>3</v>
-      </c>
-      <c r="N116" t="n">
-        <v>4</v>
-      </c>
-      <c r="O116" t="n">
-        <v>2</v>
-      </c>
-      <c r="P116" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q116" t="n">
+      <c r="K116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P116" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="R116" t="n">
-        <v>2</v>
-      </c>
-      <c r="S116" t="n">
+      <c r="R116" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S116" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="T116" t="n">
+      <c r="T116" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="U116" t="n">
-        <v>3</v>
-      </c>
-      <c r="V116" t="n">
+      <c r="U116" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="W116" t="n">
-        <v>3</v>
-      </c>
-      <c r="X116" t="n">
+      <c r="W116" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X116" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="Y116" t="n">
+      <c r="Y116" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="Z116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ116" t="n">
+      <c r="Z116" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="n">
         <v>46052</v>
+      </c>
+      <c r="B117" t="n">
+        <v>13390858.51833001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>55</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>18</v>
+      </c>
+      <c r="J117" t="n">
+        <v>7</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="n">
+        <v>2</v>
+      </c>
+      <c r="P117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>10</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>10</v>
+      </c>
+      <c r="T117" t="n">
+        <v>9</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>9</v>
+      </c>
+      <c r="W117" t="n">
+        <v>3</v>
+      </c>
+      <c r="X117" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13255,115 +13255,220 @@
       <c r="A117" s="5" t="n">
         <v>46052</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="8" t="n">
         <v>13390858.51833001</v>
       </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" t="n">
+      <c r="C117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="G117" t="n">
-        <v>2</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
+      <c r="G117" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="K117" t="n">
-        <v>1</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="n">
-        <v>3</v>
-      </c>
-      <c r="N117" t="n">
-        <v>4</v>
-      </c>
-      <c r="O117" t="n">
-        <v>2</v>
-      </c>
-      <c r="P117" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q117" t="n">
+      <c r="K117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P117" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="R117" t="n">
-        <v>2</v>
-      </c>
-      <c r="S117" t="n">
+      <c r="R117" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T117" t="n">
+      <c r="T117" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="U117" t="n">
-        <v>2</v>
-      </c>
-      <c r="V117" t="n">
+      <c r="U117" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V117" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="W117" t="n">
-        <v>3</v>
-      </c>
-      <c r="X117" t="n">
+      <c r="W117" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X117" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="Y117" t="n">
+      <c r="Y117" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="Z117" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ117" t="n">
+      <c r="Z117" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ117" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="n">
         <v>46055</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12511492.79433001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>53</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>13</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="n">
+        <v>2</v>
+      </c>
+      <c r="P118" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>7</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>7</v>
+      </c>
+      <c r="T118" t="n">
+        <v>7</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>6</v>
+      </c>
+      <c r="W118" t="n">
+        <v>2</v>
+      </c>
+      <c r="X118" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13365,115 +13365,220 @@
       <c r="A118" s="5" t="n">
         <v>46055</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="8" t="n">
         <v>12511492.79433001</v>
       </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="n">
+      <c r="C118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="G118" t="n">
-        <v>2</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
+      <c r="G118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="J118" t="n">
-        <v>5</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="n">
-        <v>2</v>
-      </c>
-      <c r="N118" t="n">
-        <v>3</v>
-      </c>
-      <c r="O118" t="n">
-        <v>2</v>
-      </c>
-      <c r="P118" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q118" t="n">
+      <c r="J118" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P118" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R118" t="n">
-        <v>1</v>
-      </c>
-      <c r="S118" t="n">
+      <c r="R118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T118" t="n">
+      <c r="T118" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="U118" t="n">
-        <v>2</v>
-      </c>
-      <c r="V118" t="n">
+      <c r="U118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W118" t="n">
-        <v>2</v>
-      </c>
-      <c r="X118" t="n">
+      <c r="W118" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X118" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="Y118" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ118" t="n">
+      <c r="Y118" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z118" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI118" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ118" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
         <v>46056</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12912345.42633002</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>44</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>13</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="n">
+        <v>2</v>
+      </c>
+      <c r="P119" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>7</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>7</v>
+      </c>
+      <c r="T119" t="n">
+        <v>7</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2</v>
+      </c>
+      <c r="V119" t="n">
+        <v>6</v>
+      </c>
+      <c r="W119" t="n">
+        <v>2</v>
+      </c>
+      <c r="X119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13475,115 +13475,220 @@
       <c r="A119" s="5" t="n">
         <v>46056</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="8" t="n">
         <v>12912345.42633002</v>
       </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="C119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="G119" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
+      <c r="G119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="J119" t="n">
-        <v>5</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="n">
-        <v>2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2</v>
-      </c>
-      <c r="O119" t="n">
-        <v>2</v>
-      </c>
-      <c r="P119" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q119" t="n">
+      <c r="J119" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P119" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R119" t="n">
-        <v>1</v>
-      </c>
-      <c r="S119" t="n">
+      <c r="R119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S119" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T119" t="n">
+      <c r="T119" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="U119" t="n">
-        <v>2</v>
-      </c>
-      <c r="V119" t="n">
+      <c r="U119" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V119" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W119" t="n">
-        <v>2</v>
-      </c>
-      <c r="X119" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ119" t="n">
+      <c r="W119" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X119" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y119" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI119" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ119" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
         <v>46057</v>
+      </c>
+      <c r="B120" t="n">
+        <v>13068185.42633001</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>51</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>13</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" t="n">
+        <v>2</v>
+      </c>
+      <c r="P120" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>7</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>7</v>
+      </c>
+      <c r="T120" t="n">
+        <v>7</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>6</v>
+      </c>
+      <c r="W120" t="n">
+        <v>2</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13585,115 +13585,220 @@
       <c r="A120" s="5" t="n">
         <v>46057</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="8" t="n">
         <v>13068185.42633001</v>
       </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="C120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
+      <c r="G120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="J120" t="n">
-        <v>5</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="n">
-        <v>2</v>
-      </c>
-      <c r="N120" t="n">
-        <v>3</v>
-      </c>
-      <c r="O120" t="n">
-        <v>2</v>
-      </c>
-      <c r="P120" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q120" t="n">
+      <c r="J120" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P120" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R120" t="n">
-        <v>1</v>
-      </c>
-      <c r="S120" t="n">
+      <c r="R120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S120" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T120" t="n">
+      <c r="T120" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="U120" t="n">
-        <v>2</v>
-      </c>
-      <c r="V120" t="n">
+      <c r="U120" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V120" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W120" t="n">
-        <v>2</v>
-      </c>
-      <c r="X120" t="n">
+      <c r="W120" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X120" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="Y120" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ120" t="n">
+      <c r="Y120" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z120" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="n">
         <v>46058</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12876577.92633001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>51</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>12</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>7</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>7</v>
+      </c>
+      <c r="T121" t="n">
+        <v>6</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2</v>
+      </c>
+      <c r="V121" t="n">
+        <v>6</v>
+      </c>
+      <c r="W121" t="n">
+        <v>2</v>
+      </c>
+      <c r="X121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13695,115 +13695,220 @@
       <c r="A121" s="5" t="n">
         <v>46058</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="8" t="n">
         <v>12876577.92633001</v>
       </c>
-      <c r="C121" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="C121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
+      <c r="G121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J121" t="n">
-        <v>5</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="n">
-        <v>2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2</v>
-      </c>
-      <c r="P121" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q121" t="n">
+      <c r="J121" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q121" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R121" t="n">
-        <v>1</v>
-      </c>
-      <c r="S121" t="n">
+      <c r="R121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T121" t="n">
+      <c r="T121" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="U121" t="n">
-        <v>2</v>
-      </c>
-      <c r="V121" t="n">
+      <c r="U121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V121" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W121" t="n">
-        <v>2</v>
-      </c>
-      <c r="X121" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ121" t="n">
+      <c r="W121" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X121" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y121" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z121" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ121" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="n">
         <v>46059</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12847447.82933001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>51</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>12</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2</v>
+      </c>
+      <c r="P122" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>7</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>7</v>
+      </c>
+      <c r="T122" t="n">
+        <v>6</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2</v>
+      </c>
+      <c r="V122" t="n">
+        <v>6</v>
+      </c>
+      <c r="W122" t="n">
+        <v>2</v>
+      </c>
+      <c r="X122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13805,115 +13805,220 @@
       <c r="A122" s="5" t="n">
         <v>46059</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="8" t="n">
         <v>12847447.82933001</v>
       </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="C122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
+      <c r="G122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J122" t="n">
-        <v>5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1</v>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="n">
-        <v>2</v>
-      </c>
-      <c r="N122" t="n">
-        <v>2</v>
-      </c>
-      <c r="O122" t="n">
-        <v>2</v>
-      </c>
-      <c r="P122" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q122" t="n">
+      <c r="J122" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q122" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R122" t="n">
-        <v>1</v>
-      </c>
-      <c r="S122" t="n">
+      <c r="R122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T122" t="n">
+      <c r="T122" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="U122" t="n">
-        <v>2</v>
-      </c>
-      <c r="V122" t="n">
+      <c r="U122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V122" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W122" t="n">
-        <v>2</v>
-      </c>
-      <c r="X122" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y122" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ122" t="n">
+      <c r="W122" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X122" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y122" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z122" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="n">
         <v>46062</v>
+      </c>
+      <c r="B123" t="n">
+        <v>13073872.32933001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>50</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>12</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>7</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>7</v>
+      </c>
+      <c r="T123" t="n">
+        <v>6</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2</v>
+      </c>
+      <c r="V123" t="n">
+        <v>6</v>
+      </c>
+      <c r="W123" t="n">
+        <v>2</v>
+      </c>
+      <c r="X123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -13915,115 +13915,220 @@
       <c r="A123" s="5" t="n">
         <v>46062</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="8" t="n">
         <v>13073872.32933001</v>
       </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="n">
+      <c r="C123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
+      <c r="G123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J123" t="n">
-        <v>5</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="n">
-        <v>2</v>
-      </c>
-      <c r="N123" t="n">
-        <v>2</v>
-      </c>
-      <c r="O123" t="n">
-        <v>1</v>
-      </c>
-      <c r="P123" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q123" t="n">
+      <c r="J123" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R123" t="n">
-        <v>1</v>
-      </c>
-      <c r="S123" t="n">
+      <c r="R123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T123" t="n">
+      <c r="T123" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="U123" t="n">
-        <v>2</v>
-      </c>
-      <c r="V123" t="n">
+      <c r="U123" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V123" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W123" t="n">
-        <v>2</v>
-      </c>
-      <c r="X123" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ123" t="n">
+      <c r="W123" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X123" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y123" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z123" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ123" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="n">
         <v>46063</v>
+      </c>
+      <c r="B124" t="n">
+        <v>13068739.32933001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>51</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>12</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="n">
+        <v>2</v>
+      </c>
+      <c r="P124" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>7</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>7</v>
+      </c>
+      <c r="T124" t="n">
+        <v>7</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>6</v>
+      </c>
+      <c r="W124" t="n">
+        <v>2</v>
+      </c>
+      <c r="X124" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -14025,115 +14025,220 @@
       <c r="A124" s="5" t="n">
         <v>46063</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="8" t="n">
         <v>13068739.32933001</v>
       </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
+      <c r="C124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G124" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
+      <c r="G124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J124" t="n">
-        <v>5</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="n">
-        <v>2</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2</v>
-      </c>
-      <c r="P124" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q124" t="n">
+      <c r="J124" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R124" t="n">
-        <v>1</v>
-      </c>
-      <c r="S124" t="n">
+      <c r="R124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T124" t="n">
+      <c r="T124" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="U124" t="n">
-        <v>2</v>
-      </c>
-      <c r="V124" t="n">
+      <c r="U124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V124" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W124" t="n">
-        <v>2</v>
-      </c>
-      <c r="X124" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ124" t="n">
+      <c r="W124" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X124" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y124" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z124" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="n">
         <v>46064</v>
+      </c>
+      <c r="B125" t="n">
+        <v>13161749.82933001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>51</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>12</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>7</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>6</v>
+      </c>
+      <c r="T125" t="n">
+        <v>7</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2</v>
+      </c>
+      <c r="V125" t="n">
+        <v>6</v>
+      </c>
+      <c r="W125" t="n">
+        <v>2</v>
+      </c>
+      <c r="X125" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -14135,115 +14135,220 @@
       <c r="A125" s="5" t="n">
         <v>46064</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="8" t="n">
         <v>13161749.82933001</v>
       </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="C125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G125" t="n">
-        <v>1</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
+      <c r="G125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J125" t="n">
-        <v>5</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1</v>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2</v>
-      </c>
-      <c r="O125" t="n">
-        <v>1</v>
-      </c>
-      <c r="P125" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q125" t="n">
+      <c r="J125" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q125" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R125" t="n">
-        <v>1</v>
-      </c>
-      <c r="S125" t="n">
+      <c r="R125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S125" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="T125" t="n">
+      <c r="T125" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="U125" t="n">
-        <v>2</v>
-      </c>
-      <c r="V125" t="n">
+      <c r="U125" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V125" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W125" t="n">
-        <v>2</v>
-      </c>
-      <c r="X125" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ125" t="n">
+      <c r="W125" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X125" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y125" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z125" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI125" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
         <v>46065</v>
+      </c>
+      <c r="B126" t="n">
+        <v>13209793.77233001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>53</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>13</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>7</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1</v>
+      </c>
+      <c r="S126" t="n">
+        <v>7</v>
+      </c>
+      <c r="T126" t="n">
+        <v>7</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2</v>
+      </c>
+      <c r="V126" t="n">
+        <v>6</v>
+      </c>
+      <c r="W126" t="n">
+        <v>2</v>
+      </c>
+      <c r="X126" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -14245,109 +14245,109 @@
       <c r="A126" s="5" t="n">
         <v>46065</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="8" t="n">
         <v>13209793.77233001</v>
       </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="C126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
+      <c r="G126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="J126" t="n">
-        <v>5</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="n">
-        <v>2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>2</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1</v>
-      </c>
-      <c r="P126" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q126" t="n">
+      <c r="J126" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q126" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="R126" t="n">
-        <v>1</v>
-      </c>
-      <c r="S126" t="n">
+      <c r="R126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S126" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="T126" t="n">
+      <c r="T126" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="U126" t="n">
-        <v>2</v>
-      </c>
-      <c r="V126" t="n">
+      <c r="U126" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V126" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="W126" t="n">
-        <v>2</v>
-      </c>
-      <c r="X126" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ126" t="n">
+      <c r="W126" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X126" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y126" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z126" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14359,6 +14359,111 @@
     <row r="128">
       <c r="A128" s="5" t="n">
         <v>46077</v>
+      </c>
+      <c r="B128" t="n">
+        <v>13211347.21833001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>51</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>6</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>6</v>
+      </c>
+      <c r="T128" t="n">
+        <v>6</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>5</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1</v>
+      </c>
+      <c r="X128" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -14360,115 +14360,220 @@
       <c r="A128" s="5" t="n">
         <v>46077</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="8" t="n">
         <v>13211347.21833001</v>
       </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" t="n">
+      <c r="C128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
+      <c r="G128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J128" t="n">
-        <v>5</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="n">
-        <v>2</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2</v>
-      </c>
-      <c r="O128" t="n">
-        <v>1</v>
-      </c>
-      <c r="P128" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q128" t="n">
+      <c r="J128" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q128" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="R128" t="n">
-        <v>1</v>
-      </c>
-      <c r="S128" t="n">
+      <c r="R128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="T128" t="n">
+      <c r="T128" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="U128" t="n">
-        <v>2</v>
-      </c>
-      <c r="V128" t="n">
-        <v>5</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ128" t="n">
+      <c r="U128" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V128" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X128" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y128" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z128" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="n">
         <v>46078</v>
+      </c>
+      <c r="B129" t="n">
+        <v>13244982.97433002</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>52</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>6</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>6</v>
+      </c>
+      <c r="T129" t="n">
+        <v>6</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1</v>
+      </c>
+      <c r="X129" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -14470,115 +14470,220 @@
       <c r="A129" s="5" t="n">
         <v>46078</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="8" t="n">
         <v>13244982.97433002</v>
       </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
+      <c r="C129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
+      <c r="G129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="J129" t="n">
-        <v>4</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1</v>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="n">
-        <v>2</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2</v>
-      </c>
-      <c r="O129" t="n">
-        <v>1</v>
-      </c>
-      <c r="P129" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q129" t="n">
+      <c r="J129" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q129" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="R129" t="n">
-        <v>1</v>
-      </c>
-      <c r="S129" t="n">
+      <c r="R129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="T129" t="n">
+      <c r="T129" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="U129" t="n">
-        <v>1</v>
-      </c>
-      <c r="V129" t="n">
-        <v>5</v>
-      </c>
-      <c r="W129" t="n">
-        <v>1</v>
-      </c>
-      <c r="X129" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ129" t="n">
+      <c r="U129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X129" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y129" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z129" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ129" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="n">
         <v>46079</v>
+      </c>
+      <c r="B130" t="n">
+        <v>13157509.74933002</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>51</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>6</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>6</v>
+      </c>
+      <c r="T130" t="n">
+        <v>6</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1</v>
+      </c>
+      <c r="V130" t="n">
+        <v>5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1</v>
+      </c>
+      <c r="X130" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">

--- a/kuaiqi.xlsx
+++ b/kuaiqi.xlsx
@@ -14580,115 +14580,220 @@
       <c r="A130" s="5" t="n">
         <v>46079</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="8" t="n">
         <v>13157509.74933002</v>
       </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="n">
+      <c r="C130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="G130" t="n">
-        <v>1</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
+      <c r="G130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="J130" t="n">
-        <v>4</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1</v>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="n">
-        <v>2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2</v>
-      </c>
-      <c r="O130" t="n">
-        <v>1</v>
-      </c>
-      <c r="P130" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q130" t="n">
+      <c r="J130" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q130" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="R130" t="n">
-        <v>1</v>
-      </c>
-      <c r="S130" t="n">
+      <c r="R130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="T130" t="n">
+      <c r="T130" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="U130" t="n">
-        <v>1</v>
-      </c>
-      <c r="V130" t="n">
-        <v>5</v>
-      </c>
-      <c r="W130" t="n">
-        <v>1</v>
-      </c>
-      <c r="X130" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" t="n">
+      <c r="U130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V130" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X130" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y130" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z130" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="n">
         <v>46080</v>
+      </c>
+      <c r="B131" t="n">
+        <v>13232163.74933001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>53</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>6</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>6</v>
+      </c>
+      <c r="T131" t="n">
+        <v>6</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
